--- a/Results-Lilim-100Nodes -FINAL.xlsx
+++ b/Results-Lilim-100Nodes -FINAL.xlsx
@@ -180,12 +180,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -269,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -282,6 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL43"/>
+  <dimension ref="A1:BG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:S1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AI16" workbookViewId="0">
+      <selection activeCell="AV27" sqref="AV27:AZ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,98 +589,97 @@
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="19" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="24" width="9.140625" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" customWidth="1"/>
-    <col min="26" max="31" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="32" max="36" width="9.140625" customWidth="1"/>
-    <col min="41" max="54" width="9.140625" customWidth="1"/>
-    <col min="55" max="55" width="9.7109375" customWidth="1"/>
-    <col min="56" max="56" width="8.85546875" customWidth="1"/>
-    <col min="57" max="57" width="8.42578125" customWidth="1"/>
-    <col min="58" max="63" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="12" customWidth="1"/>
+    <col min="15" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" customWidth="1"/>
+    <col min="21" max="26" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="27" max="31" width="9.140625" customWidth="1"/>
+    <col min="36" max="49" width="9.140625" customWidth="1"/>
+    <col min="50" max="50" width="9.7109375" customWidth="1"/>
+    <col min="51" max="51" width="8.85546875" customWidth="1"/>
+    <col min="52" max="52" width="8.42578125" customWidth="1"/>
+    <col min="53" max="58" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="12" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="T1" s="12" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="O1" s="13" t="s">
         <v>37</v>
       </c>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="15"/>
       <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
       <c r="Y1" s="14"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
       <c r="AE1" s="14"/>
-      <c r="AF1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
+      <c r="AF1" s="15"/>
+      <c r="AJ1" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="AK1" s="14"/>
-      <c r="AO1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
       <c r="AT1" s="14"/>
-      <c r="AU1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="12" t="s">
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="12" t="s">
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
+      <c r="BC1" s="14"/>
+      <c r="BD1" s="14"/>
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="14"/>
+      <c r="BG1" s="14"/>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
@@ -710,123 +716,122 @@
       <c r="M2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="T2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="2" t="s">
+      <c r="U2" s="2"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="AL2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AQ2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AU2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AY2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AZ2" s="11" t="s">
+      <c r="BA2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BE2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BF2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BG2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -840,51 +845,50 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="7"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="7"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="8"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="8"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="7"/>
       <c r="AQ3" s="6"/>
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="7"/>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6"/>
       <c r="AY3" s="6"/>
       <c r="AZ3" s="6"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="7"/>
       <c r="BC3" s="6"/>
       <c r="BD3" s="6"/>
       <c r="BE3" s="6"/>
       <c r="BF3" s="6"/>
-      <c r="BG3" s="7"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="6"/>
+      <c r="BG3" s="6"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -926,67 +930,124 @@
         <f>SUM(H4:L4)</f>
         <v>647.24140680976484</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="T4" s="9"/>
-      <c r="Y4" s="5">
-        <f>SUM(T4:X4)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="9"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="9"/>
-      <c r="AK4" s="5">
-        <f>SUM(AF4:AJ4)</f>
-        <v>0</v>
-      </c>
-      <c r="AO4">
+      <c r="O4">
+        <v>110.206699026359</v>
+      </c>
+      <c r="P4">
+        <v>105.82271429207501</v>
+      </c>
+      <c r="Q4">
+        <v>217.508673356375</v>
+      </c>
+      <c r="R4">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="S4">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="T4" s="5">
+        <f>SUM(O4:S4)</f>
+        <v>687.21132502506441</v>
+      </c>
+      <c r="U4" s="9"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4">
+        <v>147.08080468606099</v>
+      </c>
+      <c r="AB4">
+        <v>71.823998382771094</v>
+      </c>
+      <c r="AC4">
+        <v>140.435773798935</v>
+      </c>
+      <c r="AD4">
+        <v>477.43731416969001</v>
+      </c>
+      <c r="AE4">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="AF4" s="5">
+        <f>SUM(AA4:AE4)</f>
+        <v>889.30519146832239</v>
+      </c>
+      <c r="AJ4">
         <v>3.2495147228240899</v>
       </c>
-      <c r="AP4">
+      <c r="AK4">
         <v>1.5126492023467999</v>
       </c>
+      <c r="AL4">
+        <v>1.9322969913482599</v>
+      </c>
+      <c r="AM4">
+        <v>3.88877873420715</v>
+      </c>
+      <c r="AN4">
+        <v>0.88863792419433596</v>
+      </c>
+      <c r="AO4" s="5">
+        <f>SUM(AJ4:AN4)</f>
+        <v>11.471877574920637</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>3.0477790355682299</v>
+      </c>
       <c r="AQ4">
-        <v>1.9322969913482599</v>
+        <v>1.4314555168151799</v>
       </c>
       <c r="AR4">
-        <v>3.88877873420715</v>
+        <v>1.74079782962799</v>
       </c>
       <c r="AS4">
-        <v>0.88863792419433596</v>
-      </c>
-      <c r="AT4" s="5">
-        <f>SUM(AO4:AS4)</f>
-        <v>11.471877574920637</v>
-      </c>
-      <c r="AU4" s="9">
-        <v>3.0477790355682299</v>
+        <v>3.68662235736846</v>
+      </c>
+      <c r="AT4">
+        <v>0.92661826610565101</v>
+      </c>
+      <c r="AU4" s="3">
+        <f>SUM(AP4:AT4)</f>
+        <v>10.833273005485511</v>
       </c>
       <c r="AV4">
-        <v>1.4314555168151799</v>
+        <v>3.2430145263671801</v>
       </c>
       <c r="AW4">
-        <v>1.74079782962799</v>
+        <v>2.3446621417999198</v>
       </c>
       <c r="AX4">
-        <v>3.68662235736846</v>
+        <v>3.12432408332824</v>
       </c>
       <c r="AY4">
-        <v>0.92661826610565101</v>
-      </c>
-      <c r="AZ4" s="3">
-        <f>SUM(AU4:AY4)</f>
-        <v>10.833273005485511</v>
-      </c>
-      <c r="BF4" s="3">
-        <f>SUM(BA4:BE4)</f>
-        <v>0</v>
-      </c>
-      <c r="BL4" s="3">
-        <f>SUM(BG4:BK4)</f>
-        <v>0</v>
+        <v>4.8095765590667696</v>
+      </c>
+      <c r="AZ4">
+        <v>1.25577163696289</v>
+      </c>
+      <c r="BA4" s="3">
+        <f>SUM(AV4:AZ4)</f>
+        <v>14.777348947525001</v>
+      </c>
+      <c r="BB4">
+        <v>3.8444334745407098</v>
+      </c>
+      <c r="BC4">
+        <v>1.4284806013107301</v>
+      </c>
+      <c r="BD4">
+        <v>2.4157433032989499</v>
+      </c>
+      <c r="BE4">
+        <v>7.96394939422607</v>
+      </c>
+      <c r="BF4">
+        <v>1.31207480430603</v>
+      </c>
+      <c r="BG4" s="3">
+        <f>SUM(BB4:BF4)</f>
+        <v>16.964681577682491</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1028,67 +1089,124 @@
         <f t="shared" ref="M5:M31" si="1">SUM(H5:L5)</f>
         <v>622.80554927629134</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="T5" s="2"/>
-      <c r="Y5" s="5">
-        <f t="shared" ref="Y5:Y31" si="2">SUM(T5:X5)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="2"/>
-      <c r="AK5" s="5">
-        <f t="shared" ref="AK5:AK31" si="3">SUM(AF5:AJ5)</f>
-        <v>0</v>
-      </c>
-      <c r="AO5">
+      <c r="O5">
+        <v>110.206699026359</v>
+      </c>
+      <c r="P5">
+        <v>110.40725555812899</v>
+      </c>
+      <c r="Q5">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="R5">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="S5">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" ref="T5:T31" si="2">SUM(O5:S5)</f>
+        <v>622.80554927629134</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5">
+        <v>145.530580914316</v>
+      </c>
+      <c r="AB5">
+        <v>281.14567253538002</v>
+      </c>
+      <c r="AC5">
+        <v>140.87903611654599</v>
+      </c>
+      <c r="AD5">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="AE5">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="AF5" s="5">
+        <f t="shared" ref="AF5:AF31" si="3">SUM(AA5:AE5)</f>
+        <v>821.22852791649734</v>
+      </c>
+      <c r="AJ5">
         <v>2.8945698261260899</v>
       </c>
-      <c r="AP5">
+      <c r="AK5">
         <v>1.96621537208557</v>
       </c>
+      <c r="AL5">
+        <v>2.4453778982162402</v>
+      </c>
+      <c r="AM5">
+        <v>4.7132117271423297</v>
+      </c>
+      <c r="AN5">
+        <v>0.89215095043182302</v>
+      </c>
+      <c r="AO5" s="5">
+        <f t="shared" ref="AO5:AO31" si="4">SUM(AJ5:AN5)</f>
+        <v>12.911525774002053</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>2.2345791339874199</v>
+      </c>
       <c r="AQ5">
-        <v>2.4453778982162402</v>
+        <v>2.15797202587127</v>
       </c>
       <c r="AR5">
-        <v>4.7132117271423297</v>
+        <v>2.3470765352249101</v>
       </c>
       <c r="AS5">
-        <v>0.89215095043182302</v>
-      </c>
-      <c r="AT5" s="5">
-        <f t="shared" ref="AT5:AT31" si="4">SUM(AO5:AS5)</f>
-        <v>12.911525774002053</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>2.2345791339874199</v>
+        <v>4.2425618410110397</v>
+      </c>
+      <c r="AT5">
+        <v>0.81414456367492605</v>
+      </c>
+      <c r="AU5" s="3">
+        <f t="shared" ref="AU5:AU31" si="5">SUM(AP5:AT5)</f>
+        <v>11.796334099769567</v>
       </c>
       <c r="AV5">
-        <v>2.15797202587127</v>
+        <v>3.2786909580230699</v>
       </c>
       <c r="AW5">
-        <v>2.3470765352249101</v>
+        <v>3.1879879951476999</v>
       </c>
       <c r="AX5">
-        <v>4.2425618410110397</v>
+        <v>3.16493098735809</v>
       </c>
       <c r="AY5">
-        <v>0.81414456367492605</v>
-      </c>
-      <c r="AZ5" s="3">
-        <f t="shared" ref="AZ5:AZ31" si="5">SUM(AU5:AY5)</f>
-        <v>11.796334099769567</v>
-      </c>
-      <c r="BF5" s="3">
-        <f t="shared" ref="BF5:BF31" si="6">SUM(BA5:BE5)</f>
-        <v>0</v>
-      </c>
-      <c r="BL5" s="3">
-        <f t="shared" ref="BL5:BL31" si="7">SUM(BG5:BK5)</f>
-        <v>0</v>
+        <v>5.80275506973266</v>
+      </c>
+      <c r="AZ5">
+        <v>1.34467318058013</v>
+      </c>
+      <c r="BA5" s="3">
+        <f t="shared" ref="BA5:BA31" si="6">SUM(AV5:AZ5)</f>
+        <v>16.77903819084165</v>
+      </c>
+      <c r="BB5">
+        <v>3.4703030109405502</v>
+      </c>
+      <c r="BC5">
+        <v>3.3808786869049001</v>
+      </c>
+      <c r="BD5">
+        <v>3.2094918251037599</v>
+      </c>
+      <c r="BE5">
+        <v>5.62142436504364</v>
+      </c>
+      <c r="BF5">
+        <v>1.2812858581542901</v>
+      </c>
+      <c r="BG5" s="3">
+        <f t="shared" ref="BG5:BG31" si="7">SUM(BB5:BF5)</f>
+        <v>16.963383746147141</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1130,67 +1248,124 @@
         <f t="shared" si="1"/>
         <v>702.36985449069584</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="T6" s="2"/>
-      <c r="Y6" s="5">
+      <c r="O6">
+        <v>212.139906407187</v>
+      </c>
+      <c r="P6">
+        <v>110.40725555812899</v>
+      </c>
+      <c r="Q6">
+        <v>147.73999534465699</v>
+      </c>
+      <c r="R6">
+        <v>200.388909073983</v>
+      </c>
+      <c r="S6">
+        <v>51.9730875185762</v>
+      </c>
+      <c r="T6" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="2"/>
-      <c r="AK6" s="5">
+        <v>722.64915390253213</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6">
+        <v>281.048852522826</v>
+      </c>
+      <c r="AB6">
+        <v>75.440070363322505</v>
+      </c>
+      <c r="AC6">
+        <v>136.26784897097701</v>
+      </c>
+      <c r="AD6">
+        <v>200.388909073983</v>
+      </c>
+      <c r="AE6">
+        <v>51.9730875185762</v>
+      </c>
+      <c r="AF6" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO6">
+        <v>745.11876844968469</v>
+      </c>
+      <c r="AJ6">
         <v>4.2266420841216998</v>
       </c>
-      <c r="AP6">
+      <c r="AK6">
         <v>1.9394922733306801</v>
       </c>
-      <c r="AQ6">
+      <c r="AL6">
         <v>3.1483096122741698</v>
       </c>
-      <c r="AR6">
+      <c r="AM6">
         <v>5.9131229400634702</v>
       </c>
-      <c r="AS6">
+      <c r="AN6">
         <v>0.97654285430908205</v>
       </c>
-      <c r="AT6" s="5">
+      <c r="AO6" s="5">
         <f t="shared" si="4"/>
         <v>16.204109764099101</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AP6" s="2">
         <v>3.8143922328948898</v>
       </c>
-      <c r="AV6">
+      <c r="AQ6">
         <v>1.82517144680023</v>
       </c>
-      <c r="AW6">
+      <c r="AR6">
         <v>2.8470872402191101</v>
       </c>
-      <c r="AX6">
+      <c r="AS6">
         <v>5.9051944255828799</v>
       </c>
-      <c r="AY6">
+      <c r="AT6">
         <v>0.90319273471832195</v>
       </c>
-      <c r="AZ6" s="3">
+      <c r="AU6" s="3">
         <f t="shared" si="5"/>
         <v>15.295038080215432</v>
       </c>
-      <c r="BF6" s="3">
+      <c r="AV6">
+        <v>4.5714886426925601</v>
+      </c>
+      <c r="AW6">
+        <v>3.61967179775238</v>
+      </c>
+      <c r="AX6">
+        <v>3.9238676786422699</v>
+      </c>
+      <c r="AY6">
+        <v>7.5684148073196402</v>
+      </c>
+      <c r="AZ6">
+        <v>1.1696634054183901</v>
+      </c>
+      <c r="BA6" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL6" s="3">
+        <v>20.853106331825241</v>
+      </c>
+      <c r="BB6">
+        <v>8.2339789390563904</v>
+      </c>
+      <c r="BC6">
+        <v>1.5051955461502</v>
+      </c>
+      <c r="BD6">
+        <v>3.72371432781219</v>
+      </c>
+      <c r="BE6">
+        <v>7.0271042108535697</v>
+      </c>
+      <c r="BF6">
+        <v>1.1180599927902199</v>
+      </c>
+      <c r="BG6" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21.608053016662566</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1232,66 +1407,124 @@
         <f t="shared" si="1"/>
         <v>717.28541978938892</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="Y7" s="5">
+      <c r="O7">
+        <v>224.392720994386</v>
+      </c>
+      <c r="P7">
+        <v>122.490863343428</v>
+      </c>
+      <c r="Q7">
+        <v>144.47355668633099</v>
+      </c>
+      <c r="R7">
+        <v>194.88444202430301</v>
+      </c>
+      <c r="S7">
+        <v>50.142135623730901</v>
+      </c>
+      <c r="T7" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="2"/>
-      <c r="AK7" s="5">
+        <v>736.38371867217893</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7">
+        <v>274.76297364429001</v>
+      </c>
+      <c r="AB7">
+        <v>88.421645045083196</v>
+      </c>
+      <c r="AC7">
+        <v>130.862087378181</v>
+      </c>
+      <c r="AD7">
+        <v>194.88444202430301</v>
+      </c>
+      <c r="AE7">
+        <v>50.142135623730901</v>
+      </c>
+      <c r="AF7" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO7">
+        <v>739.07328371558822</v>
+      </c>
+      <c r="AJ7">
         <v>7.6573884963989203</v>
       </c>
-      <c r="AP7">
+      <c r="AK7">
         <v>2.5048657655715898</v>
       </c>
+      <c r="AL7">
+        <v>4.5589861631393402</v>
+      </c>
+      <c r="AM7">
+        <v>11.5326275587081</v>
+      </c>
+      <c r="AN7">
+        <v>1.33680720329284</v>
+      </c>
+      <c r="AO7" s="5">
+        <f>SUM(AJ7:AN7)</f>
+        <v>27.59067518711079</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>6.2202388763427701</v>
+      </c>
       <c r="AQ7">
-        <v>4.5589861631393402</v>
+        <v>2.3331806182861299</v>
       </c>
       <c r="AR7">
-        <v>11.5326275587081</v>
+        <v>4.2638045072555499</v>
       </c>
       <c r="AS7">
-        <v>1.33680720329284</v>
-      </c>
-      <c r="AT7" s="5">
-        <f>SUM(AO7:AS7)</f>
-        <v>27.59067518711079</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>6.2202388763427701</v>
-      </c>
-      <c r="AV7">
-        <v>2.3331806182861299</v>
-      </c>
-      <c r="AW7">
-        <v>4.2638045072555499</v>
-      </c>
-      <c r="AX7">
         <v>10.3235799074172</v>
       </c>
-      <c r="AY7">
+      <c r="AT7">
         <v>1.2231767654418899</v>
       </c>
-      <c r="AZ7" s="3">
+      <c r="AU7" s="3">
         <f t="shared" si="5"/>
         <v>24.363980674743537</v>
       </c>
-      <c r="BF7" s="3">
+      <c r="AV7">
+        <v>6.4143924713134703</v>
+      </c>
+      <c r="AW7">
+        <v>5.2664508342742904</v>
+      </c>
+      <c r="AX7">
+        <v>6.2027914047241204</v>
+      </c>
+      <c r="AY7">
+        <v>12.204247570037801</v>
+      </c>
+      <c r="AZ7">
+        <v>1.40289576053619</v>
+      </c>
+      <c r="BA7" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL7" s="3">
+        <v>31.490778040885871</v>
+      </c>
+      <c r="BB7">
+        <v>11.4277652263641</v>
+      </c>
+      <c r="BC7">
+        <v>2.2211268424987698</v>
+      </c>
+      <c r="BD7">
+        <v>4.9340893030166599</v>
+      </c>
+      <c r="BE7">
+        <v>12.586321258544899</v>
+      </c>
+      <c r="BF7">
+        <v>1.2928727865219101</v>
+      </c>
+      <c r="BG7" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>32.462175416946337</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1333,66 +1566,124 @@
         <f t="shared" si="1"/>
         <v>619.96851189885138</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="Y8" s="5">
+      <c r="O8">
+        <v>110.206699026359</v>
+      </c>
+      <c r="P8">
+        <v>110.75770598915599</v>
+      </c>
+      <c r="Q8">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="R8">
+        <v>197.958450110923</v>
+      </c>
+      <c r="S8">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="T8" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="2"/>
-      <c r="AK8" s="5">
+        <v>619.96851189885138</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8">
+        <v>144.97250125506599</v>
+      </c>
+      <c r="AB8">
+        <v>68.115527836764301</v>
+      </c>
+      <c r="AC8">
+        <v>140.435773798935</v>
+      </c>
+      <c r="AD8">
+        <v>463.65255925767701</v>
+      </c>
+      <c r="AE8">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="AF8" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO8">
+        <v>869.70366257930766</v>
+      </c>
+      <c r="AJ8">
         <v>3.3459825038909901</v>
       </c>
-      <c r="AP8">
+      <c r="AK8">
         <v>1.5081529140472401</v>
       </c>
+      <c r="AL8">
+        <v>1.92012593746185</v>
+      </c>
+      <c r="AM8">
+        <v>3.9538339853286701</v>
+      </c>
+      <c r="AN8">
+        <v>0.93404443264007497</v>
+      </c>
+      <c r="AO8" s="5">
+        <f>SUM(AJ8:AN8)</f>
+        <v>11.662139773368825</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>2.4033009052276602</v>
+      </c>
       <c r="AQ8">
-        <v>1.92012593746185</v>
+        <v>1.71264998912811</v>
       </c>
       <c r="AR8">
-        <v>3.9538339853286701</v>
+        <v>1.7939531564712501</v>
       </c>
       <c r="AS8">
-        <v>0.93404443264007497</v>
-      </c>
-      <c r="AT8" s="5">
-        <f>SUM(AO8:AS8)</f>
-        <v>11.662139773368825</v>
-      </c>
-      <c r="AU8" s="2">
-        <v>2.4033009052276602</v>
-      </c>
-      <c r="AV8">
-        <v>1.71264998912811</v>
-      </c>
-      <c r="AW8">
-        <v>1.7939531564712501</v>
-      </c>
-      <c r="AX8">
         <v>3.7206792354583702</v>
       </c>
-      <c r="AY8">
+      <c r="AT8">
         <v>0.85791544914245599</v>
       </c>
-      <c r="AZ8" s="3">
+      <c r="AU8" s="3">
         <f t="shared" si="5"/>
         <v>10.488498735427846</v>
       </c>
-      <c r="BF8" s="3">
+      <c r="AV8">
+        <v>3.5839918136596598</v>
+      </c>
+      <c r="AW8">
+        <v>2.8202594041824298</v>
+      </c>
+      <c r="AX8">
+        <v>2.8658208131790102</v>
+      </c>
+      <c r="AY8">
+        <v>5.3955925226211496</v>
+      </c>
+      <c r="AZ8">
+        <v>1.40063047409057</v>
+      </c>
+      <c r="BA8" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL8" s="3">
+        <v>16.066295027732817</v>
+      </c>
+      <c r="BB8">
+        <v>3.99841589927673</v>
+      </c>
+      <c r="BC8">
+        <v>1.44359471797943</v>
+      </c>
+      <c r="BD8">
+        <v>2.41442811489105</v>
+      </c>
+      <c r="BE8">
+        <v>7.9100617408752401</v>
+      </c>
+      <c r="BF8">
+        <v>1.37795915603637</v>
+      </c>
+      <c r="BG8" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>17.144459629058819</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1434,66 +1725,124 @@
         <f t="shared" si="1"/>
         <v>623.15599970731841</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="Y9" s="5">
+      <c r="O9">
+        <v>110.206699026359</v>
+      </c>
+      <c r="P9">
+        <v>110.75770598915599</v>
+      </c>
+      <c r="Q9">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="R9">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="S9">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="T9" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="2"/>
-      <c r="AK9" s="5">
+        <v>623.15599970731841</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9">
+        <v>139.84968708527001</v>
+      </c>
+      <c r="AB9">
+        <v>40</v>
+      </c>
+      <c r="AC9">
+        <v>139.45006854101001</v>
+      </c>
+      <c r="AD9">
+        <v>424.38629927972801</v>
+      </c>
+      <c r="AE9">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="AF9" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO9">
+        <v>796.21335533687329</v>
+      </c>
+      <c r="AJ9">
         <v>3.59781730175018</v>
       </c>
-      <c r="AP9">
+      <c r="AK9">
         <v>1.5053482532501199</v>
       </c>
-      <c r="AQ9">
+      <c r="AL9">
         <v>2.25816688537597</v>
       </c>
-      <c r="AR9">
+      <c r="AM9">
         <v>4.2252779483795102</v>
       </c>
-      <c r="AS9">
+      <c r="AN9">
         <v>1.0937185287475499</v>
       </c>
-      <c r="AT9" s="5">
+      <c r="AO9" s="5">
         <f t="shared" si="4"/>
         <v>12.68032891750333</v>
       </c>
-      <c r="AU9" s="2">
+      <c r="AP9" s="2">
         <v>2.3393565177917401</v>
       </c>
-      <c r="AV9">
+      <c r="AQ9">
         <v>1.7205018281936599</v>
       </c>
-      <c r="AW9">
+      <c r="AR9">
         <v>2.2440066576004001</v>
       </c>
-      <c r="AX9">
+      <c r="AS9">
         <v>3.80350637435913</v>
       </c>
-      <c r="AY9">
+      <c r="AT9">
         <v>1.01592309474945</v>
       </c>
-      <c r="AZ9" s="3">
+      <c r="AU9" s="3">
         <f t="shared" si="5"/>
         <v>11.123294472694379</v>
       </c>
-      <c r="BF9" s="3">
+      <c r="AV9">
+        <v>3.5893160820007299</v>
+      </c>
+      <c r="AW9">
+        <v>2.8470606088638299</v>
+      </c>
+      <c r="AX9">
+        <v>3.2882875204086299</v>
+      </c>
+      <c r="AY9">
+        <v>5.6624969005584704</v>
+      </c>
+      <c r="AZ9">
+        <v>1.59308104515075</v>
+      </c>
+      <c r="BA9" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL9" s="3">
+        <v>16.98024215698241</v>
+      </c>
+      <c r="BB9">
+        <v>4.0326001882553104</v>
+      </c>
+      <c r="BC9">
+        <v>1.15422472953796</v>
+      </c>
+      <c r="BD9">
+        <v>3.1908149719238201</v>
+      </c>
+      <c r="BE9">
+        <v>9.3386904239654491</v>
+      </c>
+      <c r="BF9">
+        <v>1.7524453878402699</v>
+      </c>
+      <c r="BG9" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>19.468775701522809</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1535,66 +1884,124 @@
         <f t="shared" si="1"/>
         <v>664.8712474411434</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="Y10" s="5">
+      <c r="O10">
+        <v>105.61053171273799</v>
+      </c>
+      <c r="P10">
+        <v>110.50607510501101</v>
+      </c>
+      <c r="Q10">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="R10">
+        <v>260.964623500622</v>
+      </c>
+      <c r="S10">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="T10" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="2"/>
-      <c r="AK10" s="5">
+        <v>678.12688709078441</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10">
+        <v>140.75150562766299</v>
+      </c>
+      <c r="AB10">
+        <v>40</v>
+      </c>
+      <c r="AC10">
+        <v>140.87903611654599</v>
+      </c>
+      <c r="AD10">
+        <v>432.34501683676399</v>
+      </c>
+      <c r="AE10">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="AF10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO10">
+        <v>806.50285901183838</v>
+      </c>
+      <c r="AJ10">
         <v>3.0701946496963499</v>
       </c>
-      <c r="AP10">
+      <c r="AK10">
         <v>1.72122626304626</v>
       </c>
-      <c r="AQ10">
+      <c r="AL10">
         <v>2.04876320362091</v>
       </c>
-      <c r="AR10">
+      <c r="AM10">
         <v>4.0666380643844597</v>
       </c>
-      <c r="AS10">
+      <c r="AN10">
         <v>0.94129893779754603</v>
       </c>
-      <c r="AT10" s="5">
+      <c r="AO10" s="5">
         <f t="shared" si="4"/>
         <v>11.848121118545526</v>
       </c>
-      <c r="AU10" s="2">
+      <c r="AP10" s="2">
         <v>2.9830847978591901</v>
       </c>
-      <c r="AV10">
+      <c r="AQ10">
         <v>1.6767358303069999</v>
       </c>
-      <c r="AW10">
+      <c r="AR10">
         <v>1.8814272880554199</v>
       </c>
-      <c r="AX10">
+      <c r="AS10">
         <v>3.75041236877441</v>
       </c>
-      <c r="AY10">
+      <c r="AT10">
         <v>0.85629050731658896</v>
       </c>
-      <c r="AZ10" s="3">
+      <c r="AU10" s="3">
         <f t="shared" si="5"/>
         <v>11.147950792312608</v>
       </c>
-      <c r="BF10" s="3">
+      <c r="AV10">
+        <v>3.3117502689361502</v>
+      </c>
+      <c r="AW10">
+        <v>2.8361388206481899</v>
+      </c>
+      <c r="AX10">
+        <v>3.0750964403152401</v>
+      </c>
+      <c r="AY10">
+        <v>7.3285455226898097</v>
+      </c>
+      <c r="AZ10">
+        <v>1.40910160541534</v>
+      </c>
+      <c r="BA10" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL10" s="3">
+        <v>17.96063265800473</v>
+      </c>
+      <c r="BB10">
+        <v>4.3430148601531897</v>
+      </c>
+      <c r="BC10">
+        <v>1.2388637304306001</v>
+      </c>
+      <c r="BD10">
+        <v>3.1214508771896301</v>
+      </c>
+      <c r="BE10">
+        <v>9.9457088947296093</v>
+      </c>
+      <c r="BF10">
+        <v>1.4940399646758999</v>
+      </c>
+      <c r="BG10" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20.143078327178927</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1636,66 +2043,124 @@
         <f t="shared" si="1"/>
         <v>650.7631127052889</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="Y11" s="5">
+      <c r="O11">
+        <v>110.206699026359</v>
+      </c>
+      <c r="P11">
+        <v>110.40725555812899</v>
+      </c>
+      <c r="Q11">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="R11">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="S11">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="T11" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="2"/>
-      <c r="AK11" s="5">
+        <v>622.80554927629134</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11">
+        <v>149.81273706731301</v>
+      </c>
+      <c r="AB11">
+        <v>68.752569727043095</v>
+      </c>
+      <c r="AC11">
+        <v>140.435773798935</v>
+      </c>
+      <c r="AD11">
+        <v>426.17819703939699</v>
+      </c>
+      <c r="AE11">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="AF11" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO11">
+        <v>837.70657806355348</v>
+      </c>
+      <c r="AJ11">
         <v>4.3340828895568801</v>
       </c>
-      <c r="AP11">
+      <c r="AK11">
         <v>1.7894013881683299</v>
       </c>
-      <c r="AQ11">
+      <c r="AL11">
         <v>2.3859110355377098</v>
       </c>
-      <c r="AR11">
+      <c r="AM11">
         <v>5.2958492517471303</v>
       </c>
-      <c r="AS11">
+      <c r="AN11">
         <v>1.15005183219909</v>
       </c>
-      <c r="AT11" s="5">
+      <c r="AO11" s="5">
         <f t="shared" si="4"/>
         <v>14.955296397209141</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AP11" s="2">
         <v>3.82228293418884</v>
       </c>
-      <c r="AV11">
+      <c r="AQ11">
         <v>1.6205398321151701</v>
       </c>
-      <c r="AW11">
+      <c r="AR11">
         <v>2.1908255100250198</v>
       </c>
-      <c r="AX11">
+      <c r="AS11">
         <v>4.7067322492599404</v>
       </c>
-      <c r="AY11">
+      <c r="AT11">
         <v>1.05007333755493</v>
       </c>
-      <c r="AZ11" s="3">
+      <c r="AU11" s="3">
         <f t="shared" si="5"/>
         <v>13.3904538631439</v>
       </c>
-      <c r="BF11" s="3">
+      <c r="AV11">
+        <v>4.410458111763</v>
+      </c>
+      <c r="AW11">
+        <v>2.9457713603973299</v>
+      </c>
+      <c r="AX11">
+        <v>3.3224030017852701</v>
+      </c>
+      <c r="AY11">
+        <v>6.80748708248138</v>
+      </c>
+      <c r="AZ11">
+        <v>1.645285987854</v>
+      </c>
+      <c r="BA11" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL11" s="3">
+        <v>19.131405544280977</v>
+      </c>
+      <c r="BB11">
+        <v>5.5420090198516796</v>
+      </c>
+      <c r="BC11">
+        <v>1.6371561765670699</v>
+      </c>
+      <c r="BD11">
+        <v>3.2580001831054601</v>
+      </c>
+      <c r="BE11">
+        <v>12.041059374809199</v>
+      </c>
+      <c r="BF11">
+        <v>1.6083287954330401</v>
+      </c>
+      <c r="BG11" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>24.08655354976645</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1737,66 +2202,124 @@
         <f t="shared" si="1"/>
         <v>640.23734313767443</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="Y12" s="5">
+      <c r="O12">
+        <v>142.46396047337799</v>
+      </c>
+      <c r="P12">
+        <v>104.193894850609</v>
+      </c>
+      <c r="Q12">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="R12">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="S12">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="T12" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="2"/>
-      <c r="AK12" s="5">
+        <v>648.84945001579035</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12">
+        <v>150.81021229721401</v>
+      </c>
+      <c r="AB12">
+        <v>80.416179041571795</v>
+      </c>
+      <c r="AC12">
+        <v>140.435773798935</v>
+      </c>
+      <c r="AD12">
+        <v>332.48810052104898</v>
+      </c>
+      <c r="AE12">
+        <v>97.6493571215793</v>
+      </c>
+      <c r="AF12" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO12">
+        <v>801.79962278034907</v>
+      </c>
+      <c r="AJ12">
         <v>6.77599246501922</v>
       </c>
-      <c r="AP12">
+      <c r="AK12">
         <v>1.87267529964447</v>
       </c>
-      <c r="AQ12">
+      <c r="AL12">
         <v>3.8978510856628401</v>
       </c>
-      <c r="AR12">
+      <c r="AM12">
         <v>6.4043411970138502</v>
       </c>
-      <c r="AS12">
+      <c r="AN12">
         <v>1.4152739763259801</v>
       </c>
-      <c r="AT12" s="5">
+      <c r="AO12" s="5">
         <f t="shared" si="4"/>
         <v>20.366134023666362</v>
       </c>
-      <c r="AU12" s="2">
+      <c r="AP12" s="2">
         <v>9.6007839441299403</v>
       </c>
-      <c r="AV12">
+      <c r="AQ12">
         <v>0.97194740772247301</v>
       </c>
-      <c r="AW12">
+      <c r="AR12">
         <v>3.7049924850463798</v>
       </c>
-      <c r="AX12">
+      <c r="AS12">
         <v>6.4770827054977396</v>
       </c>
-      <c r="AY12">
+      <c r="AT12">
         <v>1.13138213157653</v>
       </c>
-      <c r="AZ12" s="3">
+      <c r="AU12" s="3">
         <f t="shared" si="5"/>
         <v>21.886188673973063</v>
       </c>
-      <c r="BF12" s="3">
+      <c r="AV12">
+        <v>6.2901088953018096</v>
+      </c>
+      <c r="AW12">
+        <v>3.6699196338653501</v>
+      </c>
+      <c r="AX12">
+        <v>4.7557772636413498</v>
+      </c>
+      <c r="AY12">
+        <v>7.6615393161773602</v>
+      </c>
+      <c r="AZ12">
+        <v>1.61849908828735</v>
+      </c>
+      <c r="BA12" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL12" s="3">
+        <v>23.995844197273222</v>
+      </c>
+      <c r="BB12">
+        <v>8.2184683799743592</v>
+      </c>
+      <c r="BC12">
+        <v>2.1332328081130898</v>
+      </c>
+      <c r="BD12">
+        <v>4.1527257919311502</v>
+      </c>
+      <c r="BE12">
+        <v>11.4569467306137</v>
+      </c>
+      <c r="BF12">
+        <v>2.0850265026092498</v>
+      </c>
+      <c r="BG12" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>28.046400213241551</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1838,66 +2361,124 @@
         <f t="shared" si="1"/>
         <v>1007.7591672361459</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="Y13" s="5">
+      <c r="O13">
+        <v>146.68827087146201</v>
+      </c>
+      <c r="P13">
+        <v>152.765610009699</v>
+      </c>
+      <c r="Q13">
+        <v>256.19398583538202</v>
+      </c>
+      <c r="R13">
+        <v>284.08022337934</v>
+      </c>
+      <c r="S13">
+        <v>109.154249735316</v>
+      </c>
+      <c r="T13" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="2"/>
-      <c r="AK13" s="5">
+        <v>948.88233983119903</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13">
+        <v>491.70260806782801</v>
+      </c>
+      <c r="AB13">
+        <v>101.899754425401</v>
+      </c>
+      <c r="AC13">
+        <v>99.142320028168697</v>
+      </c>
+      <c r="AD13">
+        <v>192.170579406234</v>
+      </c>
+      <c r="AE13">
+        <v>79.630931759649698</v>
+      </c>
+      <c r="AF13" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO13">
+        <v>964.5461936872814</v>
+      </c>
+      <c r="AJ13">
         <v>2.2259191989898599</v>
       </c>
-      <c r="AP13">
+      <c r="AK13">
         <v>1.7715995788574199</v>
       </c>
-      <c r="AQ13">
+      <c r="AL13">
         <v>1.82599353790283</v>
       </c>
-      <c r="AR13">
+      <c r="AM13">
         <v>5.3223031520843502</v>
       </c>
-      <c r="AS13">
+      <c r="AN13">
         <v>0.82014923095703096</v>
       </c>
-      <c r="AT13" s="5">
+      <c r="AO13" s="5">
         <f t="shared" si="4"/>
         <v>11.96596469879149</v>
       </c>
-      <c r="AU13" s="2">
+      <c r="AP13" s="2">
         <v>2.26439931392669</v>
       </c>
-      <c r="AV13">
+      <c r="AQ13">
         <v>1.73920748233795</v>
       </c>
-      <c r="AW13">
+      <c r="AR13">
         <v>2.95509502887725</v>
       </c>
-      <c r="AX13">
+      <c r="AS13">
         <v>4.9817697048187197</v>
       </c>
-      <c r="AY13">
+      <c r="AT13">
         <v>0.51254746913909899</v>
       </c>
-      <c r="AZ13" s="3">
+      <c r="AU13" s="3">
         <f t="shared" si="5"/>
         <v>12.453018999099708</v>
       </c>
-      <c r="BF13" s="3">
+      <c r="AV13">
+        <v>1.4658962965011499</v>
+      </c>
+      <c r="AW13">
+        <v>2.6705322504043498</v>
+      </c>
+      <c r="AX13">
+        <v>5.6776678323745697</v>
+      </c>
+      <c r="AY13">
+        <v>8.5146042346954296</v>
+      </c>
+      <c r="AZ13">
+        <v>0.96334042549133303</v>
+      </c>
+      <c r="BA13" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL13" s="3">
+        <v>19.292041039466831</v>
+      </c>
+      <c r="BB13">
+        <v>15.293718385696399</v>
+      </c>
+      <c r="BC13">
+        <v>1.5643627643585201</v>
+      </c>
+      <c r="BD13">
+        <v>1.3333318233489899</v>
+      </c>
+      <c r="BE13">
+        <v>3.6617330074310299</v>
+      </c>
+      <c r="BF13">
+        <v>0.71352050304412795</v>
+      </c>
+      <c r="BG13" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22.566666483879064</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1939,66 +2520,124 @@
         <f t="shared" si="1"/>
         <v>1142.097561398823</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="Y14" s="5">
+      <c r="O14">
+        <v>153.64448010753401</v>
+      </c>
+      <c r="P14">
+        <v>196.17946604857701</v>
+      </c>
+      <c r="Q14">
+        <v>203.28513804065699</v>
+      </c>
+      <c r="R14">
+        <v>179.94992639992799</v>
+      </c>
+      <c r="S14">
+        <v>170.677305023836</v>
+      </c>
+      <c r="T14" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="2"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="2"/>
-      <c r="AK14" s="5">
+        <v>903.73631562053197</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14">
+        <v>87.905050159582004</v>
+      </c>
+      <c r="AB14">
+        <v>60.907324233799102</v>
+      </c>
+      <c r="AC14">
+        <v>679.84648602822404</v>
+      </c>
+      <c r="AD14">
+        <v>139.67918415673901</v>
+      </c>
+      <c r="AE14">
+        <v>100.552932497215</v>
+      </c>
+      <c r="AF14" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO14">
+        <v>1068.890977075559</v>
+      </c>
+      <c r="AJ14">
         <v>2.7713555335998499</v>
       </c>
-      <c r="AP14">
+      <c r="AK14">
         <v>3.8318087100982599</v>
       </c>
-      <c r="AQ14">
+      <c r="AL14">
         <v>5.3064947843551602</v>
       </c>
-      <c r="AR14">
+      <c r="AM14">
         <v>9.6412285327911302</v>
       </c>
-      <c r="AS14">
+      <c r="AN14">
         <v>1.5036875009536701</v>
       </c>
-      <c r="AT14" s="5">
+      <c r="AO14" s="5">
         <f t="shared" si="4"/>
         <v>23.054575061798072</v>
       </c>
-      <c r="AU14" s="2">
+      <c r="AP14" s="2">
         <v>6.3681014060974102</v>
       </c>
-      <c r="AV14">
+      <c r="AQ14">
         <v>1.6659356117248501</v>
       </c>
-      <c r="AW14">
+      <c r="AR14">
         <v>2.5593135595321601</v>
       </c>
-      <c r="AX14">
+      <c r="AS14">
         <v>4.79603767395019</v>
       </c>
-      <c r="AY14">
+      <c r="AT14">
         <v>2.40033922195434</v>
       </c>
-      <c r="AZ14" s="3">
+      <c r="AU14" s="3">
         <f t="shared" si="5"/>
         <v>17.789727473258949</v>
       </c>
-      <c r="BF14" s="3">
+      <c r="AV14">
+        <v>1.6920199394226001</v>
+      </c>
+      <c r="AW14">
+        <v>9.8483822822570808</v>
+      </c>
+      <c r="AX14">
+        <v>7.3467676877975396</v>
+      </c>
+      <c r="AY14">
+        <v>10.2444028615951</v>
+      </c>
+      <c r="AZ14">
+        <v>3.2233829021453801</v>
+      </c>
+      <c r="BA14" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL14" s="3">
+        <v>32.354955673217702</v>
+      </c>
+      <c r="BB14">
+        <v>1.34910345077514</v>
+      </c>
+      <c r="BC14">
+        <v>0.902647161483764</v>
+      </c>
+      <c r="BD14">
+        <v>80.395952558517394</v>
+      </c>
+      <c r="BE14">
+        <v>3.93854465484619</v>
+      </c>
+      <c r="BF14">
+        <v>0.71979696750640798</v>
+      </c>
+      <c r="BG14" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>87.306044793128891</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2040,66 +2679,124 @@
         <f t="shared" si="1"/>
         <v>1026.931433326318</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="Y15" s="5">
+      <c r="O15">
+        <v>216.88338867046099</v>
+      </c>
+      <c r="P15">
+        <v>179.98771894786299</v>
+      </c>
+      <c r="Q15">
+        <v>193.72975940217401</v>
+      </c>
+      <c r="R15">
+        <v>156.78085675883401</v>
+      </c>
+      <c r="S15">
+        <v>168.49066569943801</v>
+      </c>
+      <c r="T15" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="2"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="2"/>
-      <c r="AK15" s="5">
+        <v>915.87238947877017</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15">
+        <v>504.82487045446999</v>
+      </c>
+      <c r="AB15">
+        <v>104.040816824506</v>
+      </c>
+      <c r="AC15">
+        <v>85.787857685292494</v>
+      </c>
+      <c r="AD15">
+        <v>173.29116952230899</v>
+      </c>
+      <c r="AE15">
+        <v>100.552932497215</v>
+      </c>
+      <c r="AF15" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO15">
+        <v>968.49764698379249</v>
+      </c>
+      <c r="AJ15">
         <v>2.90157196521759</v>
       </c>
-      <c r="AP15">
+      <c r="AK15">
         <v>10.9308099508285</v>
       </c>
-      <c r="AQ15">
+      <c r="AL15">
         <v>8.7688731193542395</v>
       </c>
-      <c r="AR15">
+      <c r="AM15">
         <v>10.4914834737777</v>
       </c>
-      <c r="AS15">
+      <c r="AN15">
         <v>1.9319173574447599</v>
       </c>
-      <c r="AT15" s="5">
+      <c r="AO15" s="5">
         <f t="shared" si="4"/>
         <v>35.024655866622787</v>
       </c>
-      <c r="AU15" s="2">
+      <c r="AP15" s="2">
         <v>2.2064824104309002</v>
       </c>
-      <c r="AV15">
+      <c r="AQ15">
         <v>7.9181566715240397</v>
       </c>
-      <c r="AW15">
+      <c r="AR15">
         <v>3.1550543308257999</v>
       </c>
-      <c r="AX15">
+      <c r="AS15">
         <v>16.292787027359001</v>
       </c>
-      <c r="AY15">
+      <c r="AT15">
         <v>3.4363976240157998</v>
       </c>
-      <c r="AZ15" s="3">
+      <c r="AU15" s="3">
         <f t="shared" si="5"/>
         <v>33.008878064155539</v>
       </c>
-      <c r="BF15" s="3">
+      <c r="AV15">
+        <v>3.9209249734878502</v>
+      </c>
+      <c r="AW15">
+        <v>8.7781111240386895</v>
+      </c>
+      <c r="AX15">
+        <v>7.4126321315765296</v>
+      </c>
+      <c r="AY15">
+        <v>13.288669347762999</v>
+      </c>
+      <c r="AZ15">
+        <v>3.97902522087097</v>
+      </c>
+      <c r="BA15" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL15" s="3">
+        <v>37.379362797737038</v>
+      </c>
+      <c r="BB15">
+        <v>81.662354969978296</v>
+      </c>
+      <c r="BC15">
+        <v>1.26570188999176</v>
+      </c>
+      <c r="BD15">
+        <v>1.5814735174179</v>
+      </c>
+      <c r="BE15">
+        <v>4.6525677204131997</v>
+      </c>
+      <c r="BF15">
+        <v>0.71942164897918703</v>
+      </c>
+      <c r="BG15" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>89.881519746780356</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2141,66 +2838,124 @@
         <f t="shared" si="1"/>
         <v>962.55458656191308</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="Y16" s="5">
+      <c r="O16">
+        <v>209.47544395263799</v>
+      </c>
+      <c r="P16">
+        <v>122.70776287405</v>
+      </c>
+      <c r="Q16">
+        <v>206.07792099715701</v>
+      </c>
+      <c r="R16">
+        <v>274.75256242994101</v>
+      </c>
+      <c r="S16">
+        <v>156.957983357963</v>
+      </c>
+      <c r="T16" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="2"/>
-      <c r="AK16" s="5">
+        <v>969.971673611749</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16">
+        <v>492.38892132448302</v>
+      </c>
+      <c r="AB16">
+        <v>98.040767988325996</v>
+      </c>
+      <c r="AC16">
+        <v>99.142320028168697</v>
+      </c>
+      <c r="AD16">
+        <v>183.674134627255</v>
+      </c>
+      <c r="AE16">
+        <v>79.630931759649698</v>
+      </c>
+      <c r="AF16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO16">
+        <v>952.87707572788236</v>
+      </c>
+      <c r="AJ16">
         <v>6.8431163311004601</v>
       </c>
-      <c r="AP16">
+      <c r="AK16">
         <v>5.3742753744125302</v>
       </c>
-      <c r="AQ16">
+      <c r="AL16">
         <v>8.58487677574157</v>
       </c>
-      <c r="AR16">
+      <c r="AM16">
         <v>57.709152603149398</v>
       </c>
-      <c r="AS16">
+      <c r="AN16">
         <v>1.7905999898910501</v>
       </c>
-      <c r="AT16" s="5">
+      <c r="AO16" s="5">
         <f t="shared" si="4"/>
         <v>80.302021074295013</v>
       </c>
-      <c r="AU16" s="2">
+      <c r="AP16" s="2">
         <v>5.2925606727599996</v>
       </c>
-      <c r="AV16">
+      <c r="AQ16">
         <v>5.37200829982757</v>
       </c>
-      <c r="AW16">
+      <c r="AR16">
         <v>3.7663801193237298</v>
       </c>
-      <c r="AX16">
+      <c r="AS16">
         <v>49.691688394546503</v>
       </c>
-      <c r="AY16">
+      <c r="AT16">
         <v>4.5744156122207604</v>
       </c>
-      <c r="AZ16" s="3">
+      <c r="AU16" s="3">
         <f t="shared" si="5"/>
         <v>68.697053098678566</v>
       </c>
-      <c r="BF16" s="3">
+      <c r="AV16">
+        <v>9.0470333814620894</v>
+      </c>
+      <c r="AW16">
+        <v>4.8836733579635601</v>
+      </c>
+      <c r="AX16">
+        <v>8.0148722171783398</v>
+      </c>
+      <c r="AY16">
+        <v>48.600102877616798</v>
+      </c>
+      <c r="AZ16">
+        <v>3.5123031139373699</v>
+      </c>
+      <c r="BA16" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL16" s="3">
+        <v>74.05798494815815</v>
+      </c>
+      <c r="BB16">
+        <v>194.11956219673101</v>
+      </c>
+      <c r="BC16">
+        <v>3.0090943574905298</v>
+      </c>
+      <c r="BD16">
+        <v>2.3096260786056502</v>
+      </c>
+      <c r="BE16">
+        <v>20.431150579452499</v>
+      </c>
+      <c r="BF16">
+        <v>0.75634913444519003</v>
+      </c>
+      <c r="BG16" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>220.62578234672489</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2242,66 +2997,124 @@
         <f t="shared" si="1"/>
         <v>1010.550660499679</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="Y17" s="5">
+      <c r="O17">
+        <v>320.54223093389999</v>
+      </c>
+      <c r="P17">
+        <v>153.274802852101</v>
+      </c>
+      <c r="Q17">
+        <v>201.234408199353</v>
+      </c>
+      <c r="R17">
+        <v>115.796152416106</v>
+      </c>
+      <c r="S17">
+        <v>152.961126160129</v>
+      </c>
+      <c r="T17" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="2"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="2"/>
-      <c r="AK17" s="5">
+        <v>943.80872056158898</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17">
+        <v>498.06223022548301</v>
+      </c>
+      <c r="AB17">
+        <v>59.066061884076902</v>
+      </c>
+      <c r="AC17">
+        <v>103.129572973988</v>
+      </c>
+      <c r="AD17">
+        <v>115.796152416106</v>
+      </c>
+      <c r="AE17">
+        <v>88.9533318454842</v>
+      </c>
+      <c r="AF17" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO17">
+        <v>865.0073493451381</v>
+      </c>
+      <c r="AJ17">
         <v>5.2432768821716298</v>
       </c>
-      <c r="AP17">
+      <c r="AK17">
         <v>3.09267122745513</v>
       </c>
-      <c r="AQ17">
+      <c r="AL17">
         <v>2.8958367824554401</v>
       </c>
-      <c r="AR17">
+      <c r="AM17">
         <v>5.2842009305953903</v>
       </c>
-      <c r="AS17">
+      <c r="AN17">
         <v>1.4598773956298801</v>
       </c>
-      <c r="AT17" s="5">
+      <c r="AO17" s="5">
         <f t="shared" si="4"/>
         <v>17.97586321830747</v>
       </c>
-      <c r="AU17" s="2">
+      <c r="AP17" s="2">
         <v>4.3209599018096903</v>
       </c>
-      <c r="AV17">
+      <c r="AQ17">
         <v>3.8848403692245399</v>
       </c>
-      <c r="AW17">
+      <c r="AR17">
         <v>5.3037979125976502</v>
       </c>
-      <c r="AX17">
+      <c r="AS17">
         <v>4.2083729982376097</v>
       </c>
-      <c r="AY17">
+      <c r="AT17">
         <v>1.0704200029373101</v>
       </c>
-      <c r="AZ17" s="3">
+      <c r="AU17" s="3">
         <f t="shared" si="5"/>
         <v>18.788391184806802</v>
       </c>
-      <c r="BF17" s="3">
+      <c r="AV17">
+        <v>8.9130394458770699</v>
+      </c>
+      <c r="AW17">
+        <v>4.8229881286621001</v>
+      </c>
+      <c r="AX17">
+        <v>4.3518471002578698</v>
+      </c>
+      <c r="AY17">
+        <v>3.99607474803924</v>
+      </c>
+      <c r="AZ17">
+        <v>1.9928037405014001</v>
+      </c>
+      <c r="BA17" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL17" s="3">
+        <v>24.076753163337681</v>
+      </c>
+      <c r="BB17">
+        <v>33.760848617553698</v>
+      </c>
+      <c r="BC17">
+        <v>1.47776770591735</v>
+      </c>
+      <c r="BD17">
+        <v>1.2676250696182201</v>
+      </c>
+      <c r="BE17">
+        <v>4.2882369995117102</v>
+      </c>
+      <c r="BF17">
+        <v>1.2273930788040099</v>
+      </c>
+      <c r="BG17" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>42.021871471404992</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2343,66 +3156,124 @@
         <f t="shared" si="1"/>
         <v>892.81762928635248</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="Y18" s="5">
+      <c r="O18">
+        <v>85.3842548474681</v>
+      </c>
+      <c r="P18">
+        <v>151.692810330192</v>
+      </c>
+      <c r="Q18">
+        <v>266.15681425643697</v>
+      </c>
+      <c r="R18">
+        <v>291.10264427088498</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="2"/>
-      <c r="AK18" s="5">
+        <v>794.33652370498203</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18">
+        <v>513.12407449110799</v>
+      </c>
+      <c r="AB18">
+        <v>111.427203584531</v>
+      </c>
+      <c r="AC18">
+        <v>75.465633046055402</v>
+      </c>
+      <c r="AD18">
+        <v>163.35070646687899</v>
+      </c>
+      <c r="AE18">
+        <v>71.054083775364404</v>
+      </c>
+      <c r="AF18" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO18">
+        <v>934.4217013639377</v>
+      </c>
+      <c r="AJ18">
         <v>3.0056661367416302</v>
       </c>
-      <c r="AP18">
+      <c r="AK18">
         <v>2.4318724155426001</v>
       </c>
-      <c r="AQ18">
+      <c r="AL18">
         <v>8.66190054416656</v>
       </c>
-      <c r="AR18">
+      <c r="AM18">
         <v>13.3305119514465</v>
       </c>
-      <c r="AS18">
+      <c r="AN18">
         <v>0.61537797451019205</v>
       </c>
-      <c r="AT18" s="5">
+      <c r="AO18" s="5">
         <f t="shared" si="4"/>
         <v>28.045329022407483</v>
       </c>
-      <c r="AU18" s="2">
+      <c r="AP18" s="2">
         <v>1.4330073118209801</v>
       </c>
-      <c r="AV18">
+      <c r="AQ18">
         <v>2.5986635446548401</v>
       </c>
-      <c r="AW18">
+      <c r="AR18">
         <v>12.1140716075897</v>
       </c>
-      <c r="AX18">
+      <c r="AS18">
         <v>16.128396844863801</v>
       </c>
-      <c r="AY18">
+      <c r="AT18">
         <v>0.42658348083496</v>
       </c>
-      <c r="AZ18" s="3">
+      <c r="AU18" s="3">
         <f t="shared" si="5"/>
         <v>32.700722789764278</v>
       </c>
-      <c r="BF18" s="3">
+      <c r="AV18">
+        <v>1.19397056102752</v>
+      </c>
+      <c r="AW18">
+        <v>3.31848838329315</v>
+      </c>
+      <c r="AX18">
+        <v>17.621762871742199</v>
+      </c>
+      <c r="AY18">
+        <v>18.4446752548217</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL18" s="3">
+        <v>40.578897070884565</v>
+      </c>
+      <c r="BB18">
+        <v>70.888003396987898</v>
+      </c>
+      <c r="BC18">
+        <v>1.60581009387969</v>
+      </c>
+      <c r="BD18">
+        <v>1.2563723325729299</v>
+      </c>
+      <c r="BE18">
+        <v>3.4565315723419099</v>
+      </c>
+      <c r="BF18">
+        <v>0.74782464504241897</v>
+      </c>
+      <c r="BG18" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>77.954542040824848</v>
       </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2444,66 +3315,124 @@
         <f t="shared" si="1"/>
         <v>965.95627218711411</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="Y19" s="5">
+      <c r="O19">
+        <v>160.36991852797499</v>
+      </c>
+      <c r="P19">
+        <v>153.06827551576001</v>
+      </c>
+      <c r="Q19">
+        <v>217.926779348819</v>
+      </c>
+      <c r="R19">
+        <v>238.070082221349</v>
+      </c>
+      <c r="S19">
+        <v>152.961126160129</v>
+      </c>
+      <c r="T19" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="2"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="2"/>
-      <c r="AK19" s="5">
+        <v>922.39618177403202</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19">
+        <v>506.49101120804801</v>
+      </c>
+      <c r="AB19">
+        <v>56.1131222576387</v>
+      </c>
+      <c r="AC19">
+        <v>103.129572973988</v>
+      </c>
+      <c r="AD19">
+        <v>115.64828583210701</v>
+      </c>
+      <c r="AE19">
+        <v>88.9533318454842</v>
+      </c>
+      <c r="AF19" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO19">
+        <v>870.33532411726594</v>
+      </c>
+      <c r="AJ19">
         <v>5.9452636957168501</v>
       </c>
-      <c r="AP19">
+      <c r="AK19">
         <v>7.0467129230499204</v>
       </c>
-      <c r="AQ19">
+      <c r="AL19">
         <v>2.3090878486633302</v>
       </c>
-      <c r="AR19">
+      <c r="AM19">
         <v>10.151226615905699</v>
       </c>
-      <c r="AS19">
+      <c r="AN19">
         <v>1.67858715057373</v>
       </c>
-      <c r="AT19" s="5">
+      <c r="AO19" s="5">
         <f t="shared" si="4"/>
         <v>27.130878233909531</v>
       </c>
-      <c r="AU19" s="2">
+      <c r="AP19" s="2">
         <v>3.1300533294677702</v>
       </c>
-      <c r="AV19">
+      <c r="AQ19">
         <v>9.7012171506881693</v>
       </c>
-      <c r="AW19">
+      <c r="AR19">
         <v>3.9551511049270598</v>
       </c>
-      <c r="AX19">
+      <c r="AS19">
         <v>11.0763450145721</v>
       </c>
-      <c r="AY19">
+      <c r="AT19">
         <v>1.2469570636749201</v>
       </c>
-      <c r="AZ19" s="3">
+      <c r="AU19" s="3">
         <f t="shared" si="5"/>
         <v>29.109723663330016</v>
       </c>
-      <c r="BF19" s="3">
+      <c r="AV19">
+        <v>3.5398623466491701</v>
+      </c>
+      <c r="AW19">
+        <v>11.6653769493103</v>
+      </c>
+      <c r="AX19">
+        <v>5.3505061149597104</v>
+      </c>
+      <c r="AY19">
+        <v>14.311329627037001</v>
+      </c>
+      <c r="AZ19">
+        <v>2.4190349102020199</v>
+      </c>
+      <c r="BA19" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL19" s="3">
+        <v>37.286109948158206</v>
+      </c>
+      <c r="BB19">
+        <v>53.572629117965697</v>
+      </c>
+      <c r="BC19">
+        <v>1.6162849664688099</v>
+      </c>
+      <c r="BD19">
+        <v>1.1513885974883999</v>
+      </c>
+      <c r="BE19">
+        <v>6.1725537776947004</v>
+      </c>
+      <c r="BF19">
+        <v>1.27866470813751</v>
+      </c>
+      <c r="BG19" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>63.791521167755121</v>
       </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2545,66 +3474,124 @@
         <f t="shared" si="1"/>
         <v>933.66472284044903</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="Y20" s="5">
+      <c r="O20">
+        <v>255.03155596785001</v>
+      </c>
+      <c r="P20">
+        <v>153.10575474694599</v>
+      </c>
+      <c r="Q20">
+        <v>201.234408199353</v>
+      </c>
+      <c r="R20">
+        <v>215.15452526107899</v>
+      </c>
+      <c r="S20">
+        <v>152.961126160129</v>
+      </c>
+      <c r="T20" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="2"/>
-      <c r="AK20" s="5">
+        <v>977.48737033535701</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20">
+        <v>506.49101120804801</v>
+      </c>
+      <c r="AB20">
+        <v>59.944074152483999</v>
+      </c>
+      <c r="AC20">
+        <v>101.568543845684</v>
+      </c>
+      <c r="AD20">
+        <v>115.796152416106</v>
+      </c>
+      <c r="AE20">
+        <v>87.551702443373998</v>
+      </c>
+      <c r="AF20" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO20">
+        <v>871.3514840656959</v>
+      </c>
+      <c r="AJ20">
         <v>6.4270731449127201</v>
       </c>
-      <c r="AP20">
+      <c r="AK20">
         <v>3.9022116899490298</v>
       </c>
-      <c r="AQ20">
+      <c r="AL20">
         <v>4.4737627744674597</v>
       </c>
-      <c r="AR20">
+      <c r="AM20">
         <v>8.4258956193923904</v>
       </c>
-      <c r="AS20">
+      <c r="AN20">
         <v>1.9906561851501401</v>
       </c>
-      <c r="AT20" s="5">
+      <c r="AO20" s="5">
         <f t="shared" si="4"/>
         <v>25.219599413871737</v>
       </c>
-      <c r="AU20" s="2">
+      <c r="AP20" s="2">
         <v>4.7505751848220799</v>
       </c>
-      <c r="AV20">
+      <c r="AQ20">
         <v>5.2053268432617097</v>
       </c>
-      <c r="AW20">
+      <c r="AR20">
         <v>10.8245923757553</v>
       </c>
-      <c r="AX20">
+      <c r="AS20">
         <v>7.3275167942047101</v>
       </c>
-      <c r="AY20">
+      <c r="AT20">
         <v>1.3861005544662399</v>
       </c>
-      <c r="AZ20" s="3">
+      <c r="AU20" s="3">
         <f t="shared" si="5"/>
         <v>29.494111752510037</v>
       </c>
-      <c r="BF20" s="3">
+      <c r="AV20">
+        <v>8.0669855117797802</v>
+      </c>
+      <c r="AW20">
+        <v>6.40576047897338</v>
+      </c>
+      <c r="AX20">
+        <v>6.6125413179397503</v>
+      </c>
+      <c r="AY20">
+        <v>10.2791978597641</v>
+      </c>
+      <c r="AZ20">
+        <v>2.6482504129409699</v>
+      </c>
+      <c r="BA20" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL20" s="3">
+        <v>34.012735581397983</v>
+      </c>
+      <c r="BB20">
+        <v>82.208974242210303</v>
+      </c>
+      <c r="BC20">
+        <v>1.2686688661575301</v>
+      </c>
+      <c r="BD20">
+        <v>1.2870146274566601</v>
+      </c>
+      <c r="BE20">
+        <v>5.92399685382843</v>
+      </c>
+      <c r="BF20">
+        <v>1.4354963779449399</v>
+      </c>
+      <c r="BG20" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>92.124150967597856</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2646,66 +3633,124 @@
         <f t="shared" si="1"/>
         <v>1587.718267244202</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="Y21" s="5">
+      <c r="O21">
+        <v>497.07085817535801</v>
+      </c>
+      <c r="P21">
+        <v>376.48531900660902</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>606.42121228865994</v>
+      </c>
+      <c r="S21">
+        <v>111.91738995370299</v>
+      </c>
+      <c r="T21" s="5">
         <f t="shared" si="2"/>
+        <v>1591.89477942433</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21">
+        <v>545.30721357334596</v>
+      </c>
+      <c r="AB21">
+        <v>194.303040837769</v>
+      </c>
+      <c r="AC21">
         <v>0</v>
       </c>
-      <c r="Z21" s="2"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="2"/>
-      <c r="AK21" s="5">
+      <c r="AD21">
+        <v>508.47034964301997</v>
+      </c>
+      <c r="AE21">
+        <v>646.11402740840401</v>
+      </c>
+      <c r="AF21" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO21">
+        <v>1894.1946314625388</v>
+      </c>
+      <c r="AJ21">
         <v>2.9349014997482299</v>
       </c>
-      <c r="AP21">
+      <c r="AK21">
         <v>2.1355027198791499</v>
       </c>
-      <c r="AQ21">
+      <c r="AL21">
         <v>0.65151202678680398</v>
       </c>
-      <c r="AR21">
+      <c r="AM21">
         <v>6.5601197004318204</v>
       </c>
-      <c r="AS21">
+      <c r="AN21">
         <v>1.2135075092315599</v>
       </c>
-      <c r="AT21" s="5">
+      <c r="AO21" s="5">
         <f t="shared" si="4"/>
         <v>13.495543456077565</v>
       </c>
-      <c r="AU21">
+      <c r="AP21">
         <v>5.80400855541229</v>
       </c>
-      <c r="AV21">
+      <c r="AQ21">
         <v>3.7419264793395901</v>
       </c>
-      <c r="AW21">
+      <c r="AR21">
         <v>0</v>
       </c>
-      <c r="AX21">
+      <c r="AS21">
         <v>11.036450648307801</v>
       </c>
-      <c r="AY21">
+      <c r="AT21">
         <v>1.5042830944061201</v>
       </c>
-      <c r="AZ21" s="3">
+      <c r="AU21" s="3">
         <f t="shared" si="5"/>
         <v>22.0866687774658</v>
       </c>
-      <c r="BF21" s="3">
+      <c r="AV21">
+        <v>7.5325182914733801</v>
+      </c>
+      <c r="AW21">
+        <v>3.3453408718109099</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>15.1889185667037</v>
+      </c>
+      <c r="AZ21">
+        <v>1.42480370998382</v>
+      </c>
+      <c r="BA21" s="3">
         <f t="shared" si="6"/>
+        <v>27.49158143997181</v>
+      </c>
+      <c r="BB21">
+        <v>6.5189997196197504</v>
+      </c>
+      <c r="BC21">
+        <v>1.8632791042327801</v>
+      </c>
+      <c r="BD21">
         <v>0</v>
       </c>
-      <c r="BL21" s="3">
+      <c r="BE21">
+        <v>8.4559041976928704</v>
+      </c>
+      <c r="BF21">
+        <v>4.7766145706176699</v>
+      </c>
+      <c r="BG21" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21.614797592163072</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2747,66 +3792,124 @@
         <f t="shared" si="1"/>
         <v>1527.6554537785482</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="Y22" s="5">
+      <c r="O22">
+        <v>224.54501652486999</v>
+      </c>
+      <c r="P22">
+        <v>470.94700717724402</v>
+      </c>
+      <c r="Q22">
+        <v>84.079557551686094</v>
+      </c>
+      <c r="R22">
+        <v>463.846772913194</v>
+      </c>
+      <c r="S22">
+        <v>246.795229012514</v>
+      </c>
+      <c r="T22" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="2"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="2"/>
-      <c r="AK22" s="5">
+        <v>1490.2135831795081</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22">
+        <v>202.06999532081201</v>
+      </c>
+      <c r="AB22">
+        <v>1135.4138478258101</v>
+      </c>
+      <c r="AC22">
+        <v>54.286503810670403</v>
+      </c>
+      <c r="AD22">
+        <v>340.02378268858803</v>
+      </c>
+      <c r="AE22">
+        <v>77.912360725293098</v>
+      </c>
+      <c r="AF22" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO22">
+        <v>1809.7064903711737</v>
+      </c>
+      <c r="AJ22">
         <v>4.1318722248077302</v>
       </c>
-      <c r="AP22">
+      <c r="AK22">
         <v>2.8326180934905998</v>
       </c>
-      <c r="AQ22">
+      <c r="AL22">
         <v>0.82809989452361998</v>
       </c>
-      <c r="AR22">
+      <c r="AM22">
         <v>9.8801333189010592</v>
       </c>
-      <c r="AS22">
+      <c r="AN22">
         <v>1.3720111846923799</v>
       </c>
-      <c r="AT22" s="5">
+      <c r="AO22" s="5">
         <f t="shared" si="4"/>
         <v>19.044734716415388</v>
       </c>
-      <c r="AU22">
+      <c r="AP22">
         <v>4.5866687297821001</v>
       </c>
-      <c r="AV22">
+      <c r="AQ22">
         <v>3.2724916219711302</v>
       </c>
-      <c r="AW22">
+      <c r="AR22">
         <v>1.1240689277648901</v>
       </c>
-      <c r="AX22">
+      <c r="AS22">
         <v>12.645037913322399</v>
       </c>
-      <c r="AY22">
+      <c r="AT22">
         <v>2.9356721162796</v>
       </c>
-      <c r="AZ22" s="3">
+      <c r="AU22" s="3">
         <f t="shared" si="5"/>
         <v>24.563939309120119</v>
       </c>
-      <c r="BF22" s="3">
+      <c r="AV22">
+        <v>3.0627765417099</v>
+      </c>
+      <c r="AW22">
+        <v>5.1051486730575499</v>
+      </c>
+      <c r="AX22">
+        <v>0.74704678058624197</v>
+      </c>
+      <c r="AY22">
+        <v>16.620804500579801</v>
+      </c>
+      <c r="AZ22">
+        <v>2.3246176481246899</v>
+      </c>
+      <c r="BA22" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL22" s="3">
+        <v>27.860394144058183</v>
+      </c>
+      <c r="BB22">
+        <v>3.1967288970947201</v>
+      </c>
+      <c r="BC22">
+        <v>16.613186144828699</v>
+      </c>
+      <c r="BD22">
+        <v>0.58551673889160105</v>
+      </c>
+      <c r="BE22">
+        <v>12.6407446861267</v>
+      </c>
+      <c r="BF22">
+        <v>0.99308023452758698</v>
+      </c>
+      <c r="BG22" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>34.029256701469308</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2848,66 +3951,124 @@
         <f t="shared" si="1"/>
         <v>1365.583111436162</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="Y23" s="5">
+      <c r="O23">
+        <v>337.62530967915302</v>
+      </c>
+      <c r="P23">
+        <v>305.56920110901302</v>
+      </c>
+      <c r="Q23">
+        <v>132.01879948138401</v>
+      </c>
+      <c r="R23">
+        <v>425.56223326650399</v>
+      </c>
+      <c r="S23">
+        <v>149.532306694402</v>
+      </c>
+      <c r="T23" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="2"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="2"/>
-      <c r="AK23" s="5">
+        <v>1350.3078502304561</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23">
+        <v>237.53862304939699</v>
+      </c>
+      <c r="AB23">
+        <v>138.55278096388599</v>
+      </c>
+      <c r="AC23">
+        <v>66.624168797297401</v>
+      </c>
+      <c r="AD23">
+        <v>778.03171946210102</v>
+      </c>
+      <c r="AE23">
+        <v>159.88178012719899</v>
+      </c>
+      <c r="AF23" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO23">
+        <v>1380.6290723998802</v>
+      </c>
+      <c r="AJ23">
         <v>5.7409743785858103</v>
       </c>
-      <c r="AP23">
+      <c r="AK23">
         <v>1.5638777017593299</v>
       </c>
-      <c r="AQ23">
+      <c r="AL23">
         <v>0.67871029376983605</v>
       </c>
-      <c r="AR23">
+      <c r="AM23">
         <v>9.2502090692520103</v>
       </c>
-      <c r="AS23">
+      <c r="AN23">
         <v>1.0302213430404601</v>
       </c>
-      <c r="AT23" s="5">
+      <c r="AO23" s="5">
         <f t="shared" si="4"/>
         <v>18.263992786407446</v>
       </c>
-      <c r="AU23">
+      <c r="AP23">
         <v>8.3454891920089693</v>
       </c>
-      <c r="AV23">
+      <c r="AQ23">
         <v>4.1460428953170698</v>
       </c>
-      <c r="AW23">
+      <c r="AR23">
         <v>0.96125626564025801</v>
       </c>
-      <c r="AX23">
+      <c r="AS23">
         <v>13.9615181207656</v>
       </c>
-      <c r="AY23">
+      <c r="AT23">
         <v>1.29837589263916</v>
       </c>
-      <c r="AZ23" s="3">
+      <c r="AU23" s="3">
         <f t="shared" si="5"/>
         <v>28.712682366371059</v>
       </c>
-      <c r="BF23" s="3">
+      <c r="AV23">
+        <v>4.8481833457946699</v>
+      </c>
+      <c r="AW23">
+        <v>3.8817218303680399</v>
+      </c>
+      <c r="AX23">
+        <v>1.16486191749572</v>
+      </c>
+      <c r="AY23">
+        <v>16.402645373344399</v>
+      </c>
+      <c r="AZ23">
+        <v>1.3323879003524699</v>
+      </c>
+      <c r="BA23" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL23" s="3">
+        <v>27.629800367355298</v>
+      </c>
+      <c r="BB23">
+        <v>3.6869180917739799</v>
+      </c>
+      <c r="BC23">
+        <v>1.5055562019348101</v>
+      </c>
+      <c r="BD23">
+        <v>0.75029668807983396</v>
+      </c>
+      <c r="BE23">
+        <v>32.389753556251499</v>
+      </c>
+      <c r="BF23">
+        <v>1.6552458286285401</v>
+      </c>
+      <c r="BG23" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>39.987770366668656</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2949,66 +4110,124 @@
         <f t="shared" si="1"/>
         <v>1054.336670799082</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="Y24" s="5">
+      <c r="O24">
+        <v>151.21874028225801</v>
+      </c>
+      <c r="P24">
+        <v>255.918500815751</v>
+      </c>
+      <c r="Q24">
+        <v>110.215753225741</v>
+      </c>
+      <c r="R24">
+        <v>398.09833671022602</v>
+      </c>
+      <c r="S24">
+        <v>136.12784014020099</v>
+      </c>
+      <c r="T24" s="5">
         <f t="shared" si="2"/>
+        <v>1051.579171174177</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24">
+        <v>673.59378785821195</v>
+      </c>
+      <c r="AB24">
+        <v>91.608527529882195</v>
+      </c>
+      <c r="AC24">
         <v>0</v>
       </c>
-      <c r="Z24" s="2"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="2"/>
-      <c r="AK24" s="5">
+      <c r="AD24">
+        <v>244.830603209766</v>
+      </c>
+      <c r="AE24">
+        <v>110.174827093068</v>
+      </c>
+      <c r="AF24" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO24">
+        <v>1120.207745690928</v>
+      </c>
+      <c r="AJ24">
         <v>3.05693461894989</v>
       </c>
-      <c r="AP24">
+      <c r="AK24">
         <v>2.95408363342285</v>
       </c>
-      <c r="AQ24">
+      <c r="AL24">
         <v>1.1753356933593699</v>
       </c>
-      <c r="AR24">
+      <c r="AM24">
         <v>19.0192404985427</v>
       </c>
-      <c r="AS24">
+      <c r="AN24">
         <v>0.93694181442260704</v>
       </c>
-      <c r="AT24" s="5">
+      <c r="AO24" s="5">
         <f t="shared" si="4"/>
         <v>27.142536258697415</v>
       </c>
-      <c r="AU24">
+      <c r="AP24">
         <v>3.9507281780242902</v>
       </c>
-      <c r="AV24">
+      <c r="AQ24">
         <v>4.7469831466674801</v>
       </c>
-      <c r="AW24">
+      <c r="AR24">
         <v>1.3161084175109801</v>
       </c>
-      <c r="AX24">
+      <c r="AS24">
         <v>23.078733515739401</v>
       </c>
-      <c r="AY24">
+      <c r="AT24">
         <v>1.54419405460357</v>
       </c>
-      <c r="AZ24" s="3">
+      <c r="AU24" s="3">
         <f t="shared" si="5"/>
         <v>34.636747312545722</v>
       </c>
-      <c r="BF24" s="3">
+      <c r="AV24">
+        <v>3.3029549598693801</v>
+      </c>
+      <c r="AW24">
+        <v>5.1244347572326596</v>
+      </c>
+      <c r="AX24">
+        <v>1.4170389175414999</v>
+      </c>
+      <c r="AY24">
+        <v>25.874771523475601</v>
+      </c>
+      <c r="AZ24">
+        <v>1.5778000593185399</v>
+      </c>
+      <c r="BA24" s="3">
         <f t="shared" si="6"/>
+        <v>37.297000217437684</v>
+      </c>
+      <c r="BB24">
+        <v>28.148684716224601</v>
+      </c>
+      <c r="BC24">
+        <v>1.0897912979125901</v>
+      </c>
+      <c r="BD24">
         <v>0</v>
       </c>
-      <c r="BL24" s="3">
+      <c r="BE24">
+        <v>9.5545929193496697</v>
+      </c>
+      <c r="BF24">
+        <v>1.2025006055831899</v>
+      </c>
+      <c r="BG24" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>39.995569539070054</v>
       </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3050,66 +4269,124 @@
         <f t="shared" si="1"/>
         <v>1324.3555768424753</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="Y25" s="5">
+      <c r="O25">
+        <v>529.96924789035199</v>
+      </c>
+      <c r="P25">
+        <v>223.93315853523299</v>
+      </c>
+      <c r="Q25">
+        <v>77.896209248496902</v>
+      </c>
+      <c r="R25">
+        <v>435.77429389605902</v>
+      </c>
+      <c r="S25">
+        <v>97.211201382527307</v>
+      </c>
+      <c r="T25" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="2"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="2"/>
-      <c r="AK25" s="5">
+        <v>1364.7841109526682</v>
+      </c>
+      <c r="U25" s="2"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25">
+        <v>484.97242196329103</v>
+      </c>
+      <c r="AB25">
+        <v>138.42945270205399</v>
+      </c>
+      <c r="AC25">
+        <v>26.3058928759318</v>
+      </c>
+      <c r="AD25">
+        <v>759.63507380701799</v>
+      </c>
+      <c r="AE25">
+        <v>97.211201382527307</v>
+      </c>
+      <c r="AF25" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO25">
+        <v>1506.5540427308222</v>
+      </c>
+      <c r="AJ25">
         <v>4.5017739057540798</v>
       </c>
-      <c r="AP25">
+      <c r="AK25">
         <v>1.5992092370986899</v>
       </c>
-      <c r="AQ25">
+      <c r="AL25">
         <v>0.79896001815795903</v>
       </c>
-      <c r="AR25">
+      <c r="AM25">
         <v>7.1361188411712604</v>
       </c>
-      <c r="AS25">
+      <c r="AN25">
         <v>0.69160411357879603</v>
       </c>
-      <c r="AT25" s="5">
+      <c r="AO25" s="5">
         <f t="shared" si="4"/>
         <v>14.727666115760785</v>
       </c>
-      <c r="AU25">
+      <c r="AP25">
         <v>5.6123781919479301</v>
       </c>
-      <c r="AV25">
+      <c r="AQ25">
         <v>2.9085940361022899</v>
       </c>
-      <c r="AW25">
+      <c r="AR25">
         <v>0.92688302993774396</v>
       </c>
-      <c r="AX25">
+      <c r="AS25">
         <v>14.960692572593601</v>
       </c>
-      <c r="AY25">
+      <c r="AT25">
         <v>0.905289030075073</v>
       </c>
-      <c r="AZ25" s="3">
+      <c r="AU25" s="3">
         <f t="shared" si="5"/>
         <v>25.31383686065664</v>
       </c>
-      <c r="BF25" s="3">
+      <c r="AV25">
+        <v>6.8647956371307304</v>
+      </c>
+      <c r="AW25">
+        <v>2.1235241651535</v>
+      </c>
+      <c r="AX25">
+        <v>0.86424350738525302</v>
+      </c>
+      <c r="AY25">
+        <v>11.9583951473236</v>
+      </c>
+      <c r="AZ25">
+        <v>0.88325130939483598</v>
+      </c>
+      <c r="BA25" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL25" s="3">
+        <v>22.694209766387921</v>
+      </c>
+      <c r="BB25">
+        <v>8.6522802829742407</v>
+      </c>
+      <c r="BC25">
+        <v>2.00040874481201</v>
+      </c>
+      <c r="BD25">
+        <v>0.70835547447204505</v>
+      </c>
+      <c r="BE25">
+        <v>29.447826337814298</v>
+      </c>
+      <c r="BF25">
+        <v>1.19132549762725</v>
+      </c>
+      <c r="BG25" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>42.00019633769984</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3151,67 +4428,124 @@
         <f t="shared" si="1"/>
         <v>1329.2923845082905</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="T26" s="2"/>
-      <c r="Y26" s="5">
+      <c r="O26">
+        <v>217.66307011162499</v>
+      </c>
+      <c r="P26">
+        <v>351.45348412165799</v>
+      </c>
+      <c r="Q26">
+        <v>79.578258640653104</v>
+      </c>
+      <c r="R26">
+        <v>376.58812655649803</v>
+      </c>
+      <c r="S26">
+        <v>211.766344279549</v>
+      </c>
+      <c r="T26" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="2"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="2"/>
-      <c r="AK26" s="5">
+        <v>1237.049283709983</v>
+      </c>
+      <c r="U26" s="2"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26">
+        <v>606.20265318355803</v>
+      </c>
+      <c r="AB26">
+        <v>166.37329922137499</v>
+      </c>
+      <c r="AC26">
+        <v>68.536601015313906</v>
+      </c>
+      <c r="AD26">
+        <v>344.37705944385698</v>
+      </c>
+      <c r="AE26">
+        <v>356.57973687834698</v>
+      </c>
+      <c r="AF26" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO26">
+        <v>1542.0693497424509</v>
+      </c>
+      <c r="AJ26">
         <v>2.9975915193557698</v>
       </c>
-      <c r="AP26">
+      <c r="AK26">
         <v>1.9138074874877899</v>
       </c>
-      <c r="AQ26">
+      <c r="AL26">
         <v>0.55721664428710904</v>
       </c>
-      <c r="AR26">
+      <c r="AM26">
         <v>10.961436963081301</v>
       </c>
-      <c r="AS26">
+      <c r="AN26">
         <v>1.38931014537811</v>
       </c>
-      <c r="AT26" s="5">
+      <c r="AO26" s="5">
         <f t="shared" si="4"/>
         <v>17.819362759590081</v>
       </c>
-      <c r="AU26">
+      <c r="AP26">
         <v>4.4678679466247502</v>
       </c>
-      <c r="AV26">
+      <c r="AQ26">
         <v>4.8425810813903798</v>
       </c>
-      <c r="AW26">
+      <c r="AR26">
         <v>0.52582972049713095</v>
       </c>
-      <c r="AX26">
+      <c r="AS26">
         <v>11.202853560447601</v>
       </c>
-      <c r="AY26">
+      <c r="AT26">
         <v>1.7851018667220999</v>
       </c>
-      <c r="AZ26" s="3">
+      <c r="AU26" s="3">
         <f t="shared" si="5"/>
         <v>22.824234175681962</v>
       </c>
-      <c r="BF26" s="3">
+      <c r="AV26">
+        <v>3.70231680870056</v>
+      </c>
+      <c r="AW26">
+        <v>3.7225170850753702</v>
+      </c>
+      <c r="AX26">
+        <v>0.88684623241424498</v>
+      </c>
+      <c r="AY26">
+        <v>12.2150128126144</v>
+      </c>
+      <c r="AZ26">
+        <v>2.0292124271392802</v>
+      </c>
+      <c r="BA26" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL26" s="3">
+        <v>22.555905365943858</v>
+      </c>
+      <c r="BB26">
+        <v>12.8705088853836</v>
+      </c>
+      <c r="BC26">
+        <v>1.40916919708251</v>
+      </c>
+      <c r="BD26">
+        <v>0.75229942798614502</v>
+      </c>
+      <c r="BE26">
+        <v>17.139928650856</v>
+      </c>
+      <c r="BF26">
+        <v>2.4050804615020702</v>
+      </c>
+      <c r="BG26" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>34.576986622810324</v>
       </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3253,67 +4587,124 @@
         <f t="shared" si="1"/>
         <v>1501.360377259306</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="T27" s="2"/>
-      <c r="Y27" s="5">
+      <c r="O27">
+        <v>472.11415108231603</v>
+      </c>
+      <c r="P27">
+        <v>310.424429199462</v>
+      </c>
+      <c r="Q27">
+        <v>129.07996755719799</v>
+      </c>
+      <c r="R27">
+        <v>482.25950315479002</v>
+      </c>
+      <c r="S27">
+        <v>172.65289634122999</v>
+      </c>
+      <c r="T27" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="2"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="2"/>
-      <c r="AK27" s="5">
+        <v>1566.530947334996</v>
+      </c>
+      <c r="U27" s="2"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27">
+        <v>192.56136491093</v>
+      </c>
+      <c r="AB27">
+        <v>661.63014916865598</v>
+      </c>
+      <c r="AC27">
+        <v>129.07996755719799</v>
+      </c>
+      <c r="AD27">
+        <v>578.74544635651898</v>
+      </c>
+      <c r="AE27">
+        <v>172.65289634122999</v>
+      </c>
+      <c r="AF27" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO27">
+        <v>1734.6698243345329</v>
+      </c>
+      <c r="AJ27">
         <v>3.3689642667770299</v>
       </c>
-      <c r="AP27">
+      <c r="AK27">
         <v>3.2260609149932802</v>
       </c>
-      <c r="AQ27">
+      <c r="AL27">
         <v>1.9054803848266599</v>
       </c>
-      <c r="AR27">
+      <c r="AM27">
         <v>6.8724974393844596</v>
       </c>
-      <c r="AS27">
+      <c r="AN27">
         <v>3.4321301698684601</v>
       </c>
-      <c r="AT27" s="5">
+      <c r="AO27" s="5">
         <f t="shared" si="4"/>
         <v>18.805133175849893</v>
       </c>
-      <c r="AU27" s="2">
+      <c r="AP27" s="2">
         <v>8.5623689174652107</v>
       </c>
-      <c r="AV27">
+      <c r="AQ27">
         <v>8.0685289382934506</v>
       </c>
-      <c r="AW27">
+      <c r="AR27">
         <v>4.4155152320861797</v>
       </c>
-      <c r="AX27">
+      <c r="AS27">
         <v>16.9563790559768</v>
       </c>
-      <c r="AY27">
+      <c r="AT27">
         <v>7.0633869171142498</v>
       </c>
-      <c r="AZ27" s="3">
+      <c r="AU27" s="3">
         <f t="shared" si="5"/>
         <v>45.066179060935887</v>
       </c>
-      <c r="BF27" s="3">
+      <c r="AV27">
+        <v>3.8941579580307</v>
+      </c>
+      <c r="AW27">
+        <v>3.3539478778839098</v>
+      </c>
+      <c r="AX27">
+        <v>1.49993774890899</v>
+      </c>
+      <c r="AY27">
+        <v>6.5293100833892801</v>
+      </c>
+      <c r="AZ27">
+        <v>2.1966427564620901</v>
+      </c>
+      <c r="BA27" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL27" s="3">
+        <v>17.473996424674969</v>
+      </c>
+      <c r="BB27">
+        <v>1.7765083074569701</v>
+      </c>
+      <c r="BC27">
+        <v>6.0434577226638702</v>
+      </c>
+      <c r="BD27">
+        <v>1.49577686786651</v>
+      </c>
+      <c r="BE27">
+        <v>6.1765572071075399</v>
+      </c>
+      <c r="BF27">
+        <v>2.2551275730132998</v>
+      </c>
+      <c r="BG27" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>17.747427678108192</v>
       </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3355,67 +4746,124 @@
         <f t="shared" si="1"/>
         <v>1481.6345427989334</v>
       </c>
-      <c r="N28" s="3"/>
-      <c r="T28" s="2"/>
-      <c r="Y28" s="5">
+      <c r="O28">
+        <v>294.07440697700201</v>
+      </c>
+      <c r="P28">
+        <v>288.90678205397398</v>
+      </c>
+      <c r="Q28">
+        <v>80.454096472162306</v>
+      </c>
+      <c r="R28">
+        <v>595.60347446212199</v>
+      </c>
+      <c r="S28">
+        <v>203.78145265830599</v>
+      </c>
+      <c r="T28" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="2"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="2"/>
-      <c r="AK28" s="5">
+        <v>1462.8202126235665</v>
+      </c>
+      <c r="U28" s="2"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28">
+        <v>576.56926207675394</v>
+      </c>
+      <c r="AB28">
+        <v>126.320847612446</v>
+      </c>
+      <c r="AC28">
+        <v>100.98528297686499</v>
+      </c>
+      <c r="AD28">
+        <v>438.34600846515502</v>
+      </c>
+      <c r="AE28">
+        <v>218.81405651266999</v>
+      </c>
+      <c r="AF28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO28">
+        <v>1461.0354576438899</v>
+      </c>
+      <c r="AJ28">
         <v>4.35925903320312</v>
       </c>
-      <c r="AP28">
+      <c r="AK28">
         <v>3.2255076885223302</v>
       </c>
-      <c r="AQ28">
+      <c r="AL28">
         <v>1.5770210981368999</v>
       </c>
-      <c r="AR28">
+      <c r="AM28">
         <v>8.8425183057784995</v>
       </c>
-      <c r="AS28">
+      <c r="AN28">
         <v>3.2026550292968698</v>
       </c>
-      <c r="AT28" s="5">
+      <c r="AO28" s="5">
         <f t="shared" si="4"/>
         <v>21.206961154937723</v>
       </c>
-      <c r="AU28" s="2">
+      <c r="AP28" s="2">
         <v>9.8331169366836502</v>
       </c>
-      <c r="AV28">
+      <c r="AQ28">
         <v>8.6710576295852597</v>
       </c>
-      <c r="AW28">
+      <c r="AR28">
         <v>3.1665083646774201</v>
       </c>
-      <c r="AX28">
+      <c r="AS28">
         <v>29.513715267181301</v>
       </c>
-      <c r="AY28">
+      <c r="AT28">
         <v>8.08989369869232</v>
       </c>
-      <c r="AZ28" s="3">
+      <c r="AU28" s="3">
         <f t="shared" si="5"/>
         <v>59.274291896819946</v>
       </c>
-      <c r="BF28" s="3">
+      <c r="AV28">
+        <v>4.2762972354888902</v>
+      </c>
+      <c r="AW28">
+        <v>4.4017995357513398</v>
+      </c>
+      <c r="AX28">
+        <v>1.2856003761291499</v>
+      </c>
+      <c r="AY28">
+        <v>9.1513214588165201</v>
+      </c>
+      <c r="AZ28">
+        <v>2.2644166707992501</v>
+      </c>
+      <c r="BA28" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL28" s="3">
+        <v>21.379435276985149</v>
+      </c>
+      <c r="BB28">
+        <v>6.2965640306472697</v>
+      </c>
+      <c r="BC28">
+        <v>2.1090277433395301</v>
+      </c>
+      <c r="BD28">
+        <v>1.43247792720794</v>
+      </c>
+      <c r="BE28">
+        <v>7.4326357364654498</v>
+      </c>
+      <c r="BF28">
+        <v>2.57984325885772</v>
+      </c>
+      <c r="BG28" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>19.850548696517912</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3457,67 +4905,124 @@
         <f t="shared" si="1"/>
         <v>1192.4936938164108</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="T29" s="2"/>
-      <c r="Y29" s="5">
+      <c r="O29">
+        <v>147.89899709411799</v>
+      </c>
+      <c r="P29">
+        <v>210.75722723953299</v>
+      </c>
+      <c r="Q29">
+        <v>194.761671741551</v>
+      </c>
+      <c r="R29">
+        <v>484.95652298017001</v>
+      </c>
+      <c r="S29">
+        <v>217.95908182321901</v>
+      </c>
+      <c r="T29" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="2"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="2"/>
-      <c r="AK29" s="5">
+        <v>1256.3335008785912</v>
+      </c>
+      <c r="U29" s="2"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29">
+        <v>518.75632781134004</v>
+      </c>
+      <c r="AB29">
+        <v>136.71450119354199</v>
+      </c>
+      <c r="AC29">
+        <v>87.670127202512006</v>
+      </c>
+      <c r="AD29">
+        <v>455.20073451661301</v>
+      </c>
+      <c r="AE29">
+        <v>171.05070474716101</v>
+      </c>
+      <c r="AF29" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO29">
+        <v>1369.3923954711681</v>
+      </c>
+      <c r="AJ29">
         <v>4.2106235027313197</v>
       </c>
-      <c r="AP29">
+      <c r="AK29">
         <v>3.43338429927825</v>
       </c>
-      <c r="AQ29">
+      <c r="AL29">
         <v>1.82916979789733</v>
       </c>
-      <c r="AR29">
+      <c r="AM29">
         <v>12.620773625373801</v>
       </c>
-      <c r="AS29">
+      <c r="AN29">
         <v>4.1317907571792603</v>
       </c>
-      <c r="AT29" s="5">
+      <c r="AO29" s="5">
         <f t="shared" si="4"/>
         <v>26.225741982459962</v>
       </c>
-      <c r="AU29" s="2">
+      <c r="AP29" s="2">
         <v>13.590778255462601</v>
       </c>
-      <c r="AV29">
+      <c r="AQ29">
         <v>11.0127363204956</v>
       </c>
-      <c r="AW29">
+      <c r="AR29">
         <v>3.9540321588516201</v>
       </c>
-      <c r="AX29">
+      <c r="AS29">
         <v>24.721037435531599</v>
       </c>
-      <c r="AY29">
+      <c r="AT29">
         <v>8.80262897014617</v>
       </c>
-      <c r="AZ29" s="3">
+      <c r="AU29" s="3">
         <f t="shared" si="5"/>
         <v>62.081213140487591</v>
       </c>
-      <c r="BF29" s="3">
+      <c r="AV29">
+        <v>1.85330805778503</v>
+      </c>
+      <c r="AW29">
+        <v>3.2331351280212401</v>
+      </c>
+      <c r="AX29">
+        <v>1.9204796314239501</v>
+      </c>
+      <c r="AY29">
+        <v>11.7903622865676</v>
+      </c>
+      <c r="AZ29">
+        <v>4.2692594051360997</v>
+      </c>
+      <c r="BA29" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL29" s="3">
+        <v>23.066544508933919</v>
+      </c>
+      <c r="BB29">
+        <v>9.1525265216827396</v>
+      </c>
+      <c r="BC29">
+        <v>2.26892685890197</v>
+      </c>
+      <c r="BD29">
+        <v>1.11916172504425</v>
+      </c>
+      <c r="BE29">
+        <v>8.2840857028961103</v>
+      </c>
+      <c r="BF29">
+        <v>3.3617985725402799</v>
+      </c>
+      <c r="BG29" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>24.186499381065353</v>
       </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3559,67 +5064,124 @@
         <f t="shared" si="1"/>
         <v>1018.8090061003035</v>
       </c>
-      <c r="N30" s="3"/>
-      <c r="T30" s="2"/>
-      <c r="Y30" s="5">
+      <c r="O30">
+        <v>266.01689408617699</v>
+      </c>
+      <c r="P30">
+        <v>191.94081479656401</v>
+      </c>
+      <c r="Q30">
+        <v>70.102769245761607</v>
+      </c>
+      <c r="R30">
+        <v>320.30378666068799</v>
+      </c>
+      <c r="S30">
+        <v>172.40769772049899</v>
+      </c>
+      <c r="T30" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="2"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="2"/>
-      <c r="AK30" s="5">
+        <v>1020.7719625096896</v>
+      </c>
+      <c r="U30" s="2"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30">
+        <v>407.57400458535699</v>
+      </c>
+      <c r="AB30">
+        <v>143.08452763474901</v>
+      </c>
+      <c r="AC30">
+        <v>70.102769245761607</v>
+      </c>
+      <c r="AD30">
+        <v>289.25854049750097</v>
+      </c>
+      <c r="AE30">
+        <v>123.14768326382899</v>
+      </c>
+      <c r="AF30" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO30">
+        <v>1033.1675252271978</v>
+      </c>
+      <c r="AJ30">
         <v>4.8624701738357503</v>
       </c>
-      <c r="AP30">
+      <c r="AK30">
         <v>4.09868631362915</v>
       </c>
-      <c r="AQ30">
+      <c r="AL30">
         <v>2.4070781230926501</v>
       </c>
-      <c r="AR30">
+      <c r="AM30">
         <v>12.7079120635986</v>
       </c>
-      <c r="AS30">
+      <c r="AN30">
         <v>4.5019918680190996</v>
       </c>
-      <c r="AT30" s="5">
+      <c r="AO30" s="5">
         <f t="shared" si="4"/>
         <v>28.57813854217525</v>
       </c>
-      <c r="AU30" s="2">
+      <c r="AP30" s="2">
         <v>11.588964200019801</v>
       </c>
-      <c r="AV30">
+      <c r="AQ30">
         <v>20.392505431175199</v>
       </c>
-      <c r="AW30">
+      <c r="AR30">
         <v>5.3226895093917799</v>
       </c>
-      <c r="AX30">
+      <c r="AS30">
         <v>27.820630979537899</v>
       </c>
-      <c r="AY30">
+      <c r="AT30">
         <v>10.194811654090801</v>
       </c>
-      <c r="AZ30" s="3">
+      <c r="AU30" s="3">
         <f t="shared" si="5"/>
         <v>75.319601774215471</v>
       </c>
-      <c r="BF30" s="3">
+      <c r="AV30">
+        <v>6.1486599206924399</v>
+      </c>
+      <c r="AW30">
+        <v>3.9239145755767799</v>
+      </c>
+      <c r="AX30">
+        <v>1.8890254735946601</v>
+      </c>
+      <c r="AY30">
+        <v>11.392287945747301</v>
+      </c>
+      <c r="AZ30">
+        <v>3.8799871683120699</v>
+      </c>
+      <c r="BA30" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL30" s="3">
+        <v>27.233875083923252</v>
+      </c>
+      <c r="BB30">
+        <v>10.0865847587585</v>
+      </c>
+      <c r="BC30">
+        <v>3.4965518712997401</v>
+      </c>
+      <c r="BD30">
+        <v>2.0780140876769999</v>
+      </c>
+      <c r="BE30">
+        <v>7.0679124116897496</v>
+      </c>
+      <c r="BF30">
+        <v>2.5914414644241299</v>
+      </c>
+      <c r="BG30" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>25.320504593849119</v>
       </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3661,67 +5223,124 @@
         <f t="shared" si="1"/>
         <v>1412.0365092192371</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="T31" s="2"/>
-      <c r="Y31" s="5">
+      <c r="O31">
+        <v>312.62170731122598</v>
+      </c>
+      <c r="P31">
+        <v>202.73065341561599</v>
+      </c>
+      <c r="Q31">
+        <v>154.006911999957</v>
+      </c>
+      <c r="R31">
+        <v>485.812871442465</v>
+      </c>
+      <c r="S31">
+        <v>276.03007656333102</v>
+      </c>
+      <c r="T31" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="2"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="2"/>
-      <c r="AK31" s="5">
+        <v>1431.2022207325949</v>
+      </c>
+      <c r="U31" s="2"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31">
+        <v>675.09837474972403</v>
+      </c>
+      <c r="AB31">
+        <v>172.154833551552</v>
+      </c>
+      <c r="AC31">
+        <v>60.450474501971101</v>
+      </c>
+      <c r="AD31">
+        <v>380.87774292595401</v>
+      </c>
+      <c r="AE31">
+        <v>219.434650918828</v>
+      </c>
+      <c r="AF31" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO31">
+        <v>1508.0160766480292</v>
+      </c>
+      <c r="AJ31">
         <v>3.6337527990341099</v>
       </c>
-      <c r="AP31">
+      <c r="AK31">
         <v>3.7923718690872099</v>
       </c>
-      <c r="AQ31">
+      <c r="AL31">
         <v>1.6802636861801099</v>
       </c>
-      <c r="AR31">
+      <c r="AM31">
         <v>8.6311204195022508</v>
       </c>
-      <c r="AS31">
+      <c r="AN31">
         <v>3.3056743860244699</v>
       </c>
-      <c r="AT31" s="5">
+      <c r="AO31" s="5">
         <f t="shared" si="4"/>
         <v>21.043183159828153</v>
       </c>
-      <c r="AU31" s="2">
+      <c r="AP31" s="2">
         <v>9.5731970787048297</v>
       </c>
-      <c r="AV31">
+      <c r="AQ31">
         <v>10.352837848663301</v>
       </c>
-      <c r="AW31">
+      <c r="AR31">
         <v>2.9610889196395802</v>
       </c>
-      <c r="AX31">
+      <c r="AS31">
         <v>17.9969166994094</v>
       </c>
-      <c r="AY31">
+      <c r="AT31">
         <v>7.4309311628341597</v>
       </c>
-      <c r="AZ31" s="3">
+      <c r="AU31" s="3">
         <f t="shared" si="5"/>
         <v>48.314971709251267</v>
       </c>
-      <c r="BF31" s="3">
+      <c r="AV31">
+        <v>3.8173828125</v>
+      </c>
+      <c r="AW31">
+        <v>2.980672955513</v>
+      </c>
+      <c r="AX31">
+        <v>1.8503104448318399</v>
+      </c>
+      <c r="AY31">
+        <v>7.2762123107910099</v>
+      </c>
+      <c r="AZ31">
+        <v>3.0666837930679298</v>
+      </c>
+      <c r="BA31" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BL31" s="3">
+        <v>18.991262316703779</v>
+      </c>
+      <c r="BB31">
+        <v>10.8747535467147</v>
+      </c>
+      <c r="BC31">
+        <v>2.6701529026031401</v>
+      </c>
+      <c r="BD31">
+        <v>1.2548543453216501</v>
+      </c>
+      <c r="BE31">
+        <v>5.3396869182586597</v>
+      </c>
+      <c r="BF31">
+        <v>2.9313925266265799</v>
+      </c>
+      <c r="BG31" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>23.070840239524731</v>
       </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3734,51 +5353,50 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="3"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="2"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="2"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="5"/>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="5"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="2"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
       <c r="AS32" s="3"/>
-      <c r="AT32" s="5"/>
-      <c r="AU32" s="2"/>
-      <c r="AV32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="2"/>
       <c r="AW32" s="3"/>
       <c r="AX32" s="3"/>
       <c r="AY32" s="3"/>
       <c r="AZ32" s="3"/>
-      <c r="BA32" s="2"/>
-      <c r="BB32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="2"/>
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
       <c r="BE32" s="3"/>
       <c r="BF32" s="3"/>
-      <c r="BG32" s="2"/>
-      <c r="BH32" s="3"/>
-      <c r="BI32" s="3"/>
-      <c r="BJ32" s="3"/>
-      <c r="BK32" s="3"/>
-      <c r="BL32" s="3"/>
+      <c r="BG32" s="3"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -3787,7 +5405,7 @@
         <v>263.14336599790363</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" ref="C34:AK34" si="8">AVERAGE(C4:C31)</f>
+        <f t="shared" ref="C34:AF34" si="8">AVERAGE(C4:C31)</f>
         <v>178.75929183059677</v>
       </c>
       <c r="D34" s="2">
@@ -3830,159 +5448,158 @@
         <f t="shared" si="8"/>
         <v>1022.3680740141484</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="T34" s="2" t="e">
+      <c r="O34" s="2">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U34" s="2" t="e">
+        <v>222.65994849332949</v>
+      </c>
+      <c r="P34" s="2">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V34" s="2" t="e">
+        <v>194.55712517998811</v>
+      </c>
+      <c r="Q34" s="2">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W34" s="2" t="e">
+        <v>152.10234188859189</v>
+      </c>
+      <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X34" s="2" t="e">
+        <v>310.3871507777007</v>
+      </c>
+      <c r="S34" s="2">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y34" s="2">
+        <v>126.0768366080281</v>
+      </c>
+      <c r="T34" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <v>1005.7834029476384</v>
+      </c>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2" t="e">
+      <c r="AA34" s="2">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG34" s="2" t="e">
+        <v>367.70905933292107</v>
+      </c>
+      <c r="AB34" s="2">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH34" s="2" t="e">
+        <v>163.21930701872927</v>
+      </c>
+      <c r="AC34" s="2">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI34" s="2" t="e">
+        <v>116.47625953257467</v>
+      </c>
+      <c r="AD34" s="2">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ34" s="2" t="e">
+        <v>338.21822149935031</v>
+      </c>
+      <c r="AE34" s="2">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>127.31366023825255</v>
+      </c>
+      <c r="AF34" s="2">
+        <f t="shared" si="8"/>
+        <v>1112.9365076218278</v>
+      </c>
+      <c r="AJ34" s="2">
+        <f t="shared" ref="AJ34:BG34" si="9">AVERAGE(AJ4:AJ31)</f>
+        <v>4.225519491093495</v>
       </c>
       <c r="AK34" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>3.0527535200118949</v>
+      </c>
+      <c r="AL34" s="2">
+        <f t="shared" si="9"/>
+        <v>2.9111236657415085</v>
+      </c>
+      <c r="AM34" s="2">
+        <f t="shared" si="9"/>
+        <v>10.101134447540533</v>
+      </c>
+      <c r="AN34" s="2">
+        <f t="shared" si="9"/>
+        <v>1.6652577766350303</v>
       </c>
       <c r="AO34" s="2">
-        <f t="shared" ref="AO34:BL34" si="9">AVERAGE(AO4:AO31)</f>
-        <v>4.225519491093495</v>
+        <f t="shared" si="9"/>
+        <v>21.955788901022462</v>
       </c>
       <c r="AP34" s="2">
         <f t="shared" si="9"/>
-        <v>3.0527535200118949</v>
+        <v>5.4338394318308074</v>
       </c>
       <c r="AQ34" s="2">
         <f t="shared" si="9"/>
-        <v>2.9111236657415085</v>
+        <v>4.8461355677672726</v>
       </c>
       <c r="AR34" s="2">
         <f t="shared" si="9"/>
-        <v>10.101134447540533</v>
+        <v>3.2971931355340094</v>
       </c>
       <c r="AS34" s="2">
         <f t="shared" si="9"/>
-        <v>1.6652577766350303</v>
+        <v>13.036187560217682</v>
       </c>
       <c r="AT34" s="2">
         <f t="shared" si="9"/>
-        <v>21.955788901022462</v>
+        <v>2.6923945120402677</v>
       </c>
       <c r="AU34" s="2">
         <f t="shared" si="9"/>
-        <v>5.4338394318308074</v>
+        <v>29.305750207390037</v>
       </c>
       <c r="AV34" s="2">
         <f t="shared" si="9"/>
-        <v>4.8461355677672726</v>
+        <v>4.4941534212657333</v>
       </c>
       <c r="AW34" s="2">
         <f t="shared" si="9"/>
-        <v>3.2971931355340094</v>
+        <v>4.3974068931170827</v>
       </c>
       <c r="AX34" s="2">
         <f t="shared" si="9"/>
-        <v>13.036187560217682</v>
+        <v>3.9156174106257233</v>
       </c>
       <c r="AY34" s="2">
         <f t="shared" si="9"/>
-        <v>2.6923945120402677</v>
+        <v>11.975705506120379</v>
       </c>
       <c r="AZ34" s="2">
         <f t="shared" si="9"/>
-        <v>29.305750207390037</v>
-      </c>
-      <c r="BA34" s="2" t="e">
+        <v>2.0295287770884332</v>
+      </c>
+      <c r="BA34" s="2">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BB34" s="2" t="e">
+        <v>26.812412008217358</v>
+      </c>
+      <c r="BB34" s="2">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC34" s="2" t="e">
+        <v>24.543830040522948</v>
+      </c>
+      <c r="BC34" s="2">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD34" s="2" t="e">
+        <v>2.4972356941018701</v>
+      </c>
+      <c r="BD34" s="2">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BE34" s="2" t="e">
+        <v>4.6849998780659208</v>
+      </c>
+      <c r="BE34" s="2">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>10.0123646387032</v>
       </c>
       <c r="BF34" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BG34" s="2" t="e">
+        <v>1.6737146752221208</v>
+      </c>
+      <c r="BG34" s="2">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH34" s="2" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI34" s="2" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ34" s="2" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK34" s="2" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL34" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>43.412144926616072</v>
       </c>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3995,452 +5612,450 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="3"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="2"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="2"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="5"/>
-      <c r="AO36" s="2"/>
-      <c r="AP36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="5"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="2"/>
       <c r="AQ36" s="3"/>
       <c r="AR36" s="3"/>
       <c r="AS36" s="3"/>
-      <c r="AT36" s="5"/>
-      <c r="AU36" s="2"/>
-      <c r="AV36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="2"/>
       <c r="AW36" s="3"/>
       <c r="AX36" s="3"/>
       <c r="AY36" s="3"/>
       <c r="AZ36" s="3"/>
-      <c r="BA36" s="2"/>
-      <c r="BB36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="2"/>
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
       <c r="BE36" s="3"/>
       <c r="BF36" s="3"/>
-      <c r="BG36" s="2"/>
-      <c r="BH36" s="3"/>
-      <c r="BI36" s="3"/>
-      <c r="BJ36" s="3"/>
-      <c r="BK36" s="3"/>
-      <c r="BL36" s="3"/>
+      <c r="BG36" s="3"/>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="2">
-        <f>SUM(B4:B31)</f>
+        <f t="shared" ref="B37:M37" si="10">SUM(B4:B31)</f>
         <v>7368.0142479413016</v>
       </c>
       <c r="C37" s="2">
-        <f>SUM(C4:C31)</f>
+        <f t="shared" si="10"/>
         <v>5005.2601712567093</v>
       </c>
       <c r="D37" s="2">
-        <f>SUM(D4:D31)</f>
+        <f t="shared" si="10"/>
         <v>4381.8459058732024</v>
       </c>
       <c r="E37" s="2">
-        <f>SUM(E4:E31)</f>
+        <f t="shared" si="10"/>
         <v>8702.2958131084652</v>
       </c>
       <c r="F37" s="2">
-        <f>SUM(F4:F31)</f>
+        <f t="shared" si="10"/>
         <v>4239.549048314263</v>
       </c>
       <c r="G37" s="2">
-        <f>SUM(G4:G31)</f>
+        <f t="shared" si="10"/>
         <v>29696.965186493937</v>
       </c>
       <c r="H37" s="2">
-        <f>SUM(H4:H31)</f>
+        <f t="shared" si="10"/>
         <v>6743.6033489451029</v>
       </c>
       <c r="I37" s="2">
-        <f>SUM(I4:I31)</f>
+        <f t="shared" si="10"/>
         <v>5538.2942483813704</v>
       </c>
       <c r="J37" s="2">
-        <f>SUM(J4:J31)</f>
+        <f t="shared" si="10"/>
         <v>4091.0605695734521</v>
       </c>
       <c r="K37" s="2">
-        <f>SUM(K4:K31)</f>
+        <f t="shared" si="10"/>
         <v>8501.9305106685861</v>
       </c>
       <c r="L37" s="2">
-        <f>SUM(L4:L31)</f>
+        <f t="shared" si="10"/>
         <v>3751.4173948276502</v>
       </c>
       <c r="M37" s="2">
-        <f>SUM(M4:M31)</f>
+        <f t="shared" si="10"/>
         <v>28626.306072396157</v>
       </c>
-      <c r="N37" s="2"/>
+      <c r="O37" s="2">
+        <f t="shared" ref="O37:T37" si="11">SUM(O4:O31)</f>
+        <v>6234.478557813226</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="11"/>
+        <v>5447.5995050396668</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="11"/>
+        <v>4258.8655728805734</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="11"/>
+        <v>8690.8402217756193</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" si="11"/>
+        <v>3530.1514250247869</v>
+      </c>
       <c r="T37" s="2">
-        <f>SUM(T4:T31)</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="2">
-        <f>SUM(U4:U31)</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="2">
-        <f>SUM(V4:V31)</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="2">
-        <f>SUM(W4:W31)</f>
-        <v>0</v>
-      </c>
-      <c r="X37" s="2">
-        <f>SUM(X4:X31)</f>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2">
-        <f>SUM(Y4:Y31)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>28161.935282533876</v>
+      </c>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
+      <c r="AA37" s="2">
+        <f t="shared" ref="AA37:AF37" si="12">SUM(AA4:AA31)</f>
+        <v>10295.853661321789</v>
+      </c>
+      <c r="AB37" s="2">
+        <f t="shared" si="12"/>
+        <v>4570.1405965244194</v>
+      </c>
+      <c r="AC37" s="2">
+        <f t="shared" si="12"/>
+        <v>3261.3352669120909</v>
+      </c>
+      <c r="AD37" s="2">
+        <f t="shared" si="12"/>
+        <v>9470.1102019818081</v>
+      </c>
+      <c r="AE37" s="2">
+        <f t="shared" si="12"/>
+        <v>3564.7824866710716</v>
+      </c>
       <c r="AF37" s="2">
-        <f>SUM(AF4:AF31)</f>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="2">
-        <f>SUM(AG4:AG31)</f>
-        <v>0</v>
-      </c>
-      <c r="AH37" s="2">
-        <f>SUM(AH4:AH31)</f>
-        <v>0</v>
-      </c>
-      <c r="AI37" s="2">
-        <f>SUM(AI4:AI31)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>31162.22221341118</v>
       </c>
       <c r="AJ37" s="2">
-        <f>SUM(AJ4:AJ31)</f>
-        <v>0</v>
+        <f t="shared" ref="AJ37:BG37" si="13">SUM(AJ4:AJ31)</f>
+        <v>118.31454575061785</v>
       </c>
       <c r="AK37" s="2">
-        <f>SUM(AK4:AK31)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>85.477098560333062</v>
+      </c>
+      <c r="AL37" s="2">
+        <f t="shared" si="13"/>
+        <v>81.511462640762232</v>
+      </c>
+      <c r="AM37" s="2">
+        <f t="shared" si="13"/>
+        <v>282.83176453113492</v>
+      </c>
+      <c r="AN37" s="2">
+        <f t="shared" si="13"/>
+        <v>46.627217745780847</v>
       </c>
       <c r="AO37" s="2">
-        <f>SUM(AO4:AO31)</f>
-        <v>118.31454575061785</v>
+        <f t="shared" si="13"/>
+        <v>614.76208922862895</v>
       </c>
       <c r="AP37" s="2">
-        <f>SUM(AP4:AP31)</f>
-        <v>85.477098560333062</v>
+        <f t="shared" si="13"/>
+        <v>152.14750409126262</v>
       </c>
       <c r="AQ37" s="2">
-        <f>SUM(AQ4:AQ31)</f>
-        <v>81.511462640762232</v>
+        <f t="shared" si="13"/>
+        <v>135.69179589748364</v>
       </c>
       <c r="AR37" s="2">
-        <f>SUM(AR4:AR31)</f>
-        <v>282.83176453113492</v>
+        <f t="shared" si="13"/>
+        <v>92.321407794952265</v>
       </c>
       <c r="AS37" s="2">
-        <f>SUM(AS4:AS31)</f>
-        <v>46.627217745780847</v>
+        <f t="shared" si="13"/>
+        <v>365.01325168609509</v>
       </c>
       <c r="AT37" s="2">
-        <f>SUM(AT4:AT31)</f>
-        <v>614.76208922862895</v>
+        <f t="shared" si="13"/>
+        <v>75.387046337127501</v>
       </c>
       <c r="AU37" s="2">
-        <f>SUM(AU4:AU31)</f>
-        <v>152.14750409126262</v>
+        <f t="shared" si="13"/>
+        <v>820.561005806921</v>
       </c>
       <c r="AV37" s="2">
-        <f>SUM(AV4:AV31)</f>
-        <v>135.69179589748364</v>
+        <f t="shared" si="13"/>
+        <v>125.83629579544052</v>
       </c>
       <c r="AW37" s="2">
-        <f>SUM(AW4:AW31)</f>
-        <v>92.321407794952265</v>
+        <f t="shared" si="13"/>
+        <v>123.12739300727831</v>
       </c>
       <c r="AX37" s="2">
-        <f>SUM(AX4:AX31)</f>
-        <v>365.01325168609509</v>
+        <f t="shared" si="13"/>
+        <v>109.63728749752025</v>
       </c>
       <c r="AY37" s="2">
-        <f>SUM(AY4:AY31)</f>
-        <v>75.387046337127501</v>
+        <f t="shared" si="13"/>
+        <v>335.31975417137062</v>
       </c>
       <c r="AZ37" s="2">
-        <f>SUM(AZ4:AZ31)</f>
-        <v>820.561005806921</v>
+        <f t="shared" si="13"/>
+        <v>56.826805758476127</v>
       </c>
       <c r="BA37" s="2">
-        <f>SUM(BA4:BA31)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>750.74753623008598</v>
       </c>
       <c r="BB37" s="2">
-        <f>SUM(BB4:BB31)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>687.22724113464255</v>
       </c>
       <c r="BC37" s="2">
-        <f>SUM(BC4:BC31)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>69.922599434852359</v>
       </c>
       <c r="BD37" s="2">
-        <f>SUM(BD4:BD31)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>131.17999658584577</v>
       </c>
       <c r="BE37" s="2">
-        <f>SUM(BE4:BE31)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>280.3462098836896</v>
       </c>
       <c r="BF37" s="2">
-        <f>SUM(BF4:BF31)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>46.864010906219384</v>
       </c>
       <c r="BG37" s="2">
-        <f>SUM(BG4:BG31)</f>
-        <v>0</v>
-      </c>
-      <c r="BH37" s="2">
-        <f>SUM(BH4:BH31)</f>
-        <v>0</v>
-      </c>
-      <c r="BI37" s="2">
-        <f>SUM(BI4:BI31)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ37" s="2">
-        <f>SUM(BJ4:BJ31)</f>
-        <v>0</v>
-      </c>
-      <c r="BK37" s="2">
-        <f>SUM(BK4:BK31)</f>
-        <v>0</v>
-      </c>
-      <c r="BL37" s="2">
-        <f>SUM(BL4:BL31)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1215.5400579452501</v>
       </c>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:M38" si="10">STDEV(B4:B31)</f>
+        <f t="shared" ref="B38:M38" si="14">STDEV(B4:B31)</f>
         <v>101.57949319358836</v>
       </c>
       <c r="C38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>82.981396320199721</v>
       </c>
       <c r="D38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>34.663532477868117</v>
       </c>
       <c r="E38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>112.47885718994081</v>
       </c>
       <c r="F38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>72.547298868022395</v>
       </c>
       <c r="G38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>330.70103827550867</v>
       </c>
       <c r="H38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>108.45390632060128</v>
       </c>
       <c r="I38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>101.68151631715719</v>
       </c>
       <c r="J38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>62.509996858566311</v>
       </c>
       <c r="K38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>121.50779895613576</v>
       </c>
       <c r="L38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>71.344465604931401</v>
       </c>
       <c r="M38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>320.61796994700336</v>
       </c>
-      <c r="T38" t="e">
-        <f t="shared" ref="T38:AK38" si="11">STDEV(T4:T31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U38" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V38" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W38" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X38" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF38" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG38" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH38" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI38" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ38" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="O38">
+        <f t="shared" ref="O38:AF38" si="15">STDEV(O4:O31)</f>
+        <v>121.49518840112285</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="15"/>
+        <v>96.496275186955785</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="15"/>
+        <v>60.736121815545111</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="15"/>
+        <v>138.74880391015284</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="15"/>
+        <v>71.258196958649279</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="15"/>
+        <v>322.35097172043868</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="15"/>
+        <v>192.42430974648977</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="15"/>
+        <v>223.75985195084991</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="15"/>
+        <v>118.04517759191255</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="15"/>
+        <v>182.87308669389228</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="15"/>
+        <v>122.77662784390493</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="15"/>
+        <v>352.75108633367887</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" ref="AJ38:BG38" si="16">STDEV(AJ4:AJ31)</f>
+        <v>1.4529045540709133</v>
       </c>
       <c r="AK38">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>2.0163023702726468</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="16"/>
+        <v>2.3555977343018388</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="16"/>
+        <v>9.9787790025522192</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="16"/>
+        <v>1.0563601749993781</v>
       </c>
       <c r="AO38">
-        <f t="shared" ref="AO38:BL38" si="12">STDEV(AO4:AO31)</f>
-        <v>1.4529045540709133</v>
+        <f t="shared" si="16"/>
+        <v>13.097951643853271</v>
       </c>
       <c r="AP38">
-        <f t="shared" si="12"/>
-        <v>2.0163023702726468</v>
+        <f t="shared" si="16"/>
+        <v>3.1708369973522301</v>
       </c>
       <c r="AQ38">
-        <f t="shared" si="12"/>
-        <v>2.3555977343018388</v>
+        <f t="shared" si="16"/>
+        <v>4.2667322087016313</v>
       </c>
       <c r="AR38">
-        <f t="shared" si="12"/>
-        <v>9.9787790025522192</v>
+        <f t="shared" si="16"/>
+        <v>2.688623671882338</v>
       </c>
       <c r="AS38">
-        <f t="shared" si="12"/>
-        <v>1.0563601749993781</v>
+        <f t="shared" si="16"/>
+        <v>10.512873379985413</v>
       </c>
       <c r="AT38">
-        <f t="shared" si="12"/>
-        <v>13.097951643853271</v>
+        <f t="shared" si="16"/>
+        <v>2.8560697356888585</v>
       </c>
       <c r="AU38">
-        <f t="shared" si="12"/>
-        <v>3.1708369973522301</v>
+        <f t="shared" si="16"/>
+        <v>18.41515992597223</v>
       </c>
       <c r="AV38">
-        <f t="shared" si="12"/>
-        <v>4.2667322087016313</v>
+        <f t="shared" si="16"/>
+        <v>2.1502410921012389</v>
       </c>
       <c r="AW38">
-        <f t="shared" si="12"/>
-        <v>2.688623671882338</v>
+        <f t="shared" si="16"/>
+        <v>2.2773427494399074</v>
       </c>
       <c r="AX38">
-        <f t="shared" si="12"/>
-        <v>10.512873379985413</v>
+        <f t="shared" si="16"/>
+        <v>3.5158047322562989</v>
       </c>
       <c r="AY38">
-        <f t="shared" si="12"/>
-        <v>2.8560697356888585</v>
+        <f t="shared" si="16"/>
+        <v>8.6832150127415915</v>
       </c>
       <c r="AZ38">
-        <f t="shared" si="12"/>
-        <v>18.41515992597223</v>
-      </c>
-      <c r="BA38" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BB38" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC38" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD38" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BE38" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="16"/>
+        <v>1.0320694161883626</v>
+      </c>
+      <c r="BA38">
+        <f t="shared" si="16"/>
+        <v>11.846713984743261</v>
+      </c>
+      <c r="BB38">
+        <f t="shared" si="16"/>
+        <v>40.975712753849564</v>
+      </c>
+      <c r="BC38">
+        <f t="shared" si="16"/>
+        <v>2.9535172078874652</v>
+      </c>
+      <c r="BD38">
+        <f t="shared" si="16"/>
+        <v>14.889819526969193</v>
+      </c>
+      <c r="BE38">
+        <f t="shared" si="16"/>
+        <v>7.111503601011596</v>
       </c>
       <c r="BF38">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BG38" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH38" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI38" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ38" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK38" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL38">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>0.93105634188032238</v>
+      </c>
+      <c r="BG38">
+        <f t="shared" si="16"/>
+        <v>41.858824848062568</v>
       </c>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -4453,51 +6068,50 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="3"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="2"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="2"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="5"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="5"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="2"/>
       <c r="AQ39" s="3"/>
       <c r="AR39" s="3"/>
       <c r="AS39" s="3"/>
-      <c r="AT39" s="5"/>
-      <c r="AU39" s="2"/>
-      <c r="AV39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="2"/>
       <c r="AW39" s="3"/>
       <c r="AX39" s="3"/>
       <c r="AY39" s="3"/>
       <c r="AZ39" s="3"/>
-      <c r="BA39" s="2"/>
-      <c r="BB39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="2"/>
       <c r="BC39" s="3"/>
       <c r="BD39" s="3"/>
       <c r="BE39" s="3"/>
       <c r="BF39" s="3"/>
-      <c r="BG39" s="2"/>
-      <c r="BH39" s="3"/>
-      <c r="BI39" s="3"/>
-      <c r="BJ39" s="3"/>
-      <c r="BK39" s="3"/>
-      <c r="BL39" s="3"/>
+      <c r="BG39" s="3"/>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -4510,51 +6124,50 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="3"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="2"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="2"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="3"/>
-      <c r="AK40" s="5"/>
-      <c r="AO40" s="2"/>
-      <c r="AP40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="5"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="2"/>
       <c r="AQ40" s="3"/>
       <c r="AR40" s="3"/>
       <c r="AS40" s="3"/>
-      <c r="AT40" s="5"/>
-      <c r="AU40" s="2"/>
-      <c r="AV40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="2"/>
       <c r="AW40" s="3"/>
       <c r="AX40" s="3"/>
       <c r="AY40" s="3"/>
       <c r="AZ40" s="3"/>
-      <c r="BA40" s="2"/>
-      <c r="BB40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="2"/>
       <c r="BC40" s="3"/>
       <c r="BD40" s="3"/>
       <c r="BE40" s="3"/>
       <c r="BF40" s="3"/>
-      <c r="BG40" s="2"/>
-      <c r="BH40" s="3"/>
-      <c r="BI40" s="3"/>
-      <c r="BJ40" s="3"/>
-      <c r="BK40" s="3"/>
-      <c r="BL40" s="3"/>
+      <c r="BG40" s="3"/>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -4567,51 +6180,50 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="3"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="2"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="2"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="5"/>
-      <c r="AO41" s="2"/>
-      <c r="AP41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="5"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="2"/>
       <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
       <c r="AS41" s="3"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="2"/>
-      <c r="AV41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="2"/>
       <c r="AW41" s="3"/>
       <c r="AX41" s="3"/>
       <c r="AY41" s="3"/>
       <c r="AZ41" s="3"/>
-      <c r="BA41" s="2"/>
-      <c r="BB41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="2"/>
       <c r="BC41" s="3"/>
       <c r="BD41" s="3"/>
       <c r="BE41" s="3"/>
       <c r="BF41" s="3"/>
-      <c r="BG41" s="2"/>
-      <c r="BH41" s="3"/>
-      <c r="BI41" s="3"/>
-      <c r="BJ41" s="3"/>
-      <c r="BK41" s="3"/>
-      <c r="BL41" s="3"/>
+      <c r="BG41" s="3"/>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -4624,64 +6236,63 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="3"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="2"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="2"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="5"/>
-      <c r="AO42" s="2"/>
-      <c r="AP42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="5"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="2"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
-      <c r="AT42" s="5"/>
-      <c r="AU42" s="2"/>
-      <c r="AV42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="2"/>
       <c r="AW42" s="3"/>
       <c r="AX42" s="3"/>
       <c r="AY42" s="3"/>
       <c r="AZ42" s="3"/>
-      <c r="BA42" s="2"/>
-      <c r="BB42" s="3"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="2"/>
       <c r="BC42" s="3"/>
       <c r="BD42" s="3"/>
       <c r="BE42" s="3"/>
       <c r="BF42" s="3"/>
-      <c r="BG42" s="2"/>
-      <c r="BH42" s="3"/>
-      <c r="BI42" s="3"/>
-      <c r="BJ42" s="3"/>
-      <c r="BK42" s="3"/>
-      <c r="BL42" s="3"/>
+      <c r="BG42" s="3"/>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="AT43" s="5"/>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AO43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="BG1:BL1"/>
+    <mergeCell ref="BB1:BG1"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="AO1:AT1"/>
+    <mergeCell ref="AJ1:AO1"/>
     <mergeCell ref="H1:M1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AP1:AU1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="AV1:BA1"/>
+    <mergeCell ref="AA1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Results-Lilim-100Nodes -FINAL.xlsx
+++ b/Results-Lilim-100Nodes -FINAL.xlsx
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI16" workbookViewId="0">
-      <selection activeCell="AV27" sqref="AV27:AZ31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,10 +593,9 @@
     <col min="8" max="12" width="9.140625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="12" customWidth="1"/>
-    <col min="15" max="19" width="9.140625" customWidth="1"/>
+    <col min="15" max="19" width="9.140625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="8.140625" customWidth="1"/>
-    <col min="21" max="26" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="27" max="31" width="9.140625" customWidth="1"/>
+    <col min="21" max="31" width="9.140625" hidden="1" customWidth="1"/>
     <col min="36" max="49" width="9.140625" customWidth="1"/>
     <col min="50" max="50" width="9.7109375" customWidth="1"/>
     <col min="51" max="51" width="8.85546875" customWidth="1"/>
